--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18776</v>
+        <v>18930</v>
       </c>
       <c r="D2" t="n">
-        <v>23667063</v>
+        <v>23875160</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6879</v>
+        <v>6923</v>
       </c>
       <c r="D6" t="n">
-        <v>10287235</v>
+        <v>10426638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3811</v>
+        <v>3840</v>
       </c>
       <c r="D8" t="n">
-        <v>5663925</v>
+        <v>5746715</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D9" t="n">
-        <v>309872</v>
+        <v>311372</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D11" t="n">
-        <v>772337</v>
+        <v>794790</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12539</v>
+        <v>12614</v>
       </c>
       <c r="D12" t="n">
-        <v>15792725</v>
+        <v>15880968</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3566</v>
+        <v>3585</v>
       </c>
       <c r="D16" t="n">
-        <v>5245989</v>
+        <v>5269024</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="D18" t="n">
-        <v>2463323</v>
+        <v>2487492</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D19" t="n">
-        <v>603573</v>
+        <v>605073</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D21" t="n">
-        <v>409715</v>
+        <v>419848</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16235</v>
+        <v>16342</v>
       </c>
       <c r="D22" t="n">
-        <v>19962109</v>
+        <v>20105383</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5422</v>
+        <v>5441</v>
       </c>
       <c r="D26" t="n">
-        <v>8031060</v>
+        <v>8062048</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1977</v>
+        <v>1990</v>
       </c>
       <c r="D28" t="n">
-        <v>2915709</v>
+        <v>2936666</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D29" t="n">
-        <v>376162</v>
+        <v>377662</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D31" t="n">
-        <v>670673</v>
+        <v>679090</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7160</v>
+        <v>7181</v>
       </c>
       <c r="D32" t="n">
-        <v>9465045</v>
+        <v>9487095</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" t="n">
-        <v>70142</v>
+        <v>70808</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1790</v>
+        <v>1796</v>
       </c>
       <c r="D35" t="n">
-        <v>2596480</v>
+        <v>2600435</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="D37" t="n">
-        <v>915039</v>
+        <v>925973</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D40" t="n">
-        <v>222487</v>
+        <v>225460</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>24960</v>
+        <v>25173</v>
       </c>
       <c r="D41" t="n">
-        <v>30779109</v>
+        <v>31051066</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8623</v>
+        <v>8677</v>
       </c>
       <c r="D47" t="n">
-        <v>12981199</v>
+        <v>13109838</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4375</v>
+        <v>4406</v>
       </c>
       <c r="D49" t="n">
-        <v>6510772</v>
+        <v>6592889</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="D52" t="n">
-        <v>1197109</v>
+        <v>1202920</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9135</v>
+        <v>9195</v>
       </c>
       <c r="D53" t="n">
-        <v>11689706</v>
+        <v>11785166</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>6831</v>
+        <v>7706</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D56" t="n">
-        <v>107679</v>
+        <v>108345</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3053</v>
+        <v>3076</v>
       </c>
       <c r="D57" t="n">
-        <v>4516968</v>
+        <v>4567880</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1168</v>
+        <v>1182</v>
       </c>
       <c r="D59" t="n">
-        <v>1681516</v>
+        <v>1699326</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D60" t="n">
-        <v>285493</v>
+        <v>287227</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D61" t="n">
-        <v>459901</v>
+        <v>468760</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>42185</v>
+        <v>42495</v>
       </c>
       <c r="D62" t="n">
-        <v>54734191</v>
+        <v>55193212</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D64" t="n">
-        <v>218969</v>
+        <v>226444</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14874</v>
+        <v>14967</v>
       </c>
       <c r="D67" t="n">
-        <v>22536604</v>
+        <v>22836842</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6135</v>
+        <v>6176</v>
       </c>
       <c r="D69" t="n">
-        <v>9209056</v>
+        <v>9337673</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D74" t="n">
-        <v>671066</v>
+        <v>684702</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>53242</v>
+        <v>53721</v>
       </c>
       <c r="D76" t="n">
-        <v>68392877</v>
+        <v>69100362</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D79" t="n">
-        <v>123491</v>
+        <v>127308</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>20502</v>
+        <v>20670</v>
       </c>
       <c r="D80" t="n">
-        <v>31368345</v>
+        <v>31932073</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>11036</v>
+        <v>11129</v>
       </c>
       <c r="D82" t="n">
-        <v>16676237</v>
+        <v>16988917</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D84" t="n">
-        <v>535758</v>
+        <v>547258</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="D86" t="n">
-        <v>1697785</v>
+        <v>1712576</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>28256</v>
+        <v>28502</v>
       </c>
       <c r="D87" t="n">
-        <v>35835398</v>
+        <v>36205406</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D89" t="n">
-        <v>219342</v>
+        <v>220008</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9766</v>
+        <v>9856</v>
       </c>
       <c r="D91" t="n">
-        <v>15059428</v>
+        <v>15385112</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5680</v>
+        <v>5725</v>
       </c>
       <c r="D93" t="n">
-        <v>8687488</v>
+        <v>8810989</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="D96" t="n">
-        <v>1444610</v>
+        <v>1460731</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>25159</v>
+        <v>25386</v>
       </c>
       <c r="D97" t="n">
-        <v>31610161</v>
+        <v>31919337</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D101" t="n">
-        <v>103521</v>
+        <v>116185</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10265</v>
+        <v>10332</v>
       </c>
       <c r="D102" t="n">
-        <v>15477526</v>
+        <v>15650802</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3810</v>
+        <v>3845</v>
       </c>
       <c r="D104" t="n">
-        <v>5724201</v>
+        <v>5841061</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D108" t="n">
-        <v>920989</v>
+        <v>940537</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>98610</v>
+        <v>99616</v>
       </c>
       <c r="D109" t="n">
-        <v>128707533</v>
+        <v>130740196</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>34950</v>
+        <v>35225</v>
       </c>
       <c r="D116" t="n">
-        <v>53976284</v>
+        <v>54912029</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>25236</v>
+        <v>25472</v>
       </c>
       <c r="D118" t="n">
-        <v>38772128</v>
+        <v>39663708</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D121" t="n">
-        <v>1062890</v>
+        <v>1075128</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2804</v>
+        <v>2830</v>
       </c>
       <c r="D125" t="n">
-        <v>4113474</v>
+        <v>4195188</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32161</v>
+        <v>32375</v>
       </c>
       <c r="D126" t="n">
-        <v>42704531</v>
+        <v>43094924</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D129" t="n">
-        <v>180990</v>
+        <v>192490</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>11436</v>
+        <v>11512</v>
       </c>
       <c r="D130" t="n">
-        <v>17534463</v>
+        <v>17846887</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3898</v>
+        <v>3927</v>
       </c>
       <c r="D132" t="n">
-        <v>6041409</v>
+        <v>6171049</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D135" t="n">
-        <v>718937</v>
+        <v>736553</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>18017</v>
+        <v>18183</v>
       </c>
       <c r="D136" t="n">
-        <v>22432177</v>
+        <v>22672035</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>61946</v>
+        <v>65276</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8699</v>
+        <v>8766</v>
       </c>
       <c r="D140" t="n">
-        <v>13121894</v>
+        <v>13303388</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2613</v>
+        <v>2637</v>
       </c>
       <c r="D142" t="n">
-        <v>3877857</v>
+        <v>3939410</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D144" t="n">
-        <v>474437</v>
+        <v>477437</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D146" t="n">
-        <v>780189</v>
+        <v>787654</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15433</v>
+        <v>15535</v>
       </c>
       <c r="D147" t="n">
-        <v>19201731</v>
+        <v>19340492</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6814</v>
+        <v>6851</v>
       </c>
       <c r="D151" t="n">
-        <v>10013984</v>
+        <v>10085183</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2255</v>
+        <v>2273</v>
       </c>
       <c r="D153" t="n">
-        <v>3279620</v>
+        <v>3316398</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D156" t="n">
-        <v>677055</v>
+        <v>680835</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6702</v>
+        <v>6736</v>
       </c>
       <c r="D157" t="n">
-        <v>8196267</v>
+        <v>8241471</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2201</v>
+        <v>2212</v>
       </c>
       <c r="D160" t="n">
-        <v>3241860</v>
+        <v>3262641</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D161" t="n">
-        <v>1152569</v>
+        <v>1159963</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D164" t="n">
-        <v>150103</v>
+        <v>151603</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8456</v>
+        <v>8517</v>
       </c>
       <c r="D165" t="n">
-        <v>10403479</v>
+        <v>10472525</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3183</v>
+        <v>3196</v>
       </c>
       <c r="D168" t="n">
-        <v>4720253</v>
+        <v>4747465</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="D169" t="n">
-        <v>2303560</v>
+        <v>2334722</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D170" t="n">
-        <v>238355</v>
+        <v>245350</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D172" t="n">
-        <v>271656</v>
+        <v>279757</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6376</v>
+        <v>6423</v>
       </c>
       <c r="D173" t="n">
-        <v>7929862</v>
+        <v>7991136</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2214</v>
+        <v>2224</v>
       </c>
       <c r="D178" t="n">
-        <v>3269448</v>
+        <v>3278476</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D180" t="n">
-        <v>1125242</v>
+        <v>1130437</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D181" t="n">
-        <v>221966</v>
+        <v>231966</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D182" t="n">
-        <v>202877</v>
+        <v>210377</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>18291</v>
+        <v>18429</v>
       </c>
       <c r="D183" t="n">
-        <v>23024612</v>
+        <v>23226548</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D184" t="n">
-        <v>29015</v>
+        <v>39015</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>7100</v>
+        <v>7144</v>
       </c>
       <c r="D188" t="n">
-        <v>10675707</v>
+        <v>10755658</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2575</v>
+        <v>2600</v>
       </c>
       <c r="D191" t="n">
-        <v>3923958</v>
+        <v>4021832</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D194" t="n">
-        <v>840511</v>
+        <v>846511</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3423</v>
+        <v>3446</v>
       </c>
       <c r="D195" t="n">
-        <v>4272083</v>
+        <v>4307354</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="D197" t="n">
-        <v>2370359</v>
+        <v>2384877</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D199" t="n">
-        <v>907743</v>
+        <v>910205</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>10510</v>
+        <v>10555</v>
       </c>
       <c r="D203" t="n">
-        <v>13108258</v>
+        <v>13167993</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3826</v>
+        <v>3850</v>
       </c>
       <c r="D207" t="n">
-        <v>5706592</v>
+        <v>5764046</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1849</v>
+        <v>1862</v>
       </c>
       <c r="D209" t="n">
-        <v>2682118</v>
+        <v>2708851</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D212" t="n">
-        <v>423988</v>
+        <v>439991</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>19136</v>
+        <v>19230</v>
       </c>
       <c r="D213" t="n">
-        <v>23765960</v>
+        <v>23892826</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>8351</v>
+        <v>8402</v>
       </c>
       <c r="D217" t="n">
-        <v>12380793</v>
+        <v>12464741</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="D218" t="n">
-        <v>2016667</v>
+        <v>2034782</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D219" t="n">
-        <v>415399</v>
+        <v>416435</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D220" t="n">
-        <v>863162</v>
+        <v>868428</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>28950</v>
+        <v>29088</v>
       </c>
       <c r="D221" t="n">
-        <v>36339638</v>
+        <v>36496434</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D224" t="n">
-        <v>435119</v>
+        <v>437285</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>11372</v>
+        <v>11435</v>
       </c>
       <c r="D225" t="n">
-        <v>16679289</v>
+        <v>16796238</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2969</v>
+        <v>2989</v>
       </c>
       <c r="D227" t="n">
-        <v>4375193</v>
+        <v>4411142</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D230" t="n">
-        <v>1092919</v>
+        <v>1100419</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>32927</v>
+        <v>33193</v>
       </c>
       <c r="D231" t="n">
-        <v>41548649</v>
+        <v>41905134</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D235" t="n">
-        <v>330101</v>
+        <v>332514</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>16642</v>
+        <v>16770</v>
       </c>
       <c r="D236" t="n">
-        <v>25178327</v>
+        <v>25477645</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3152</v>
+        <v>3175</v>
       </c>
       <c r="D238" t="n">
-        <v>4687797</v>
+        <v>4743919</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="D241" t="n">
-        <v>1535792</v>
+        <v>1566845</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>27322</v>
+        <v>27476</v>
       </c>
       <c r="D242" t="n">
-        <v>34375916</v>
+        <v>34563857</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D243" t="n">
-        <v>22999</v>
+        <v>24499</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D244" t="n">
-        <v>51462</v>
+        <v>52962</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>12158</v>
+        <v>12240</v>
       </c>
       <c r="D248" t="n">
-        <v>17887687</v>
+        <v>17993247</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2871</v>
+        <v>2892</v>
       </c>
       <c r="D250" t="n">
-        <v>4207299</v>
+        <v>4266191</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D252" t="n">
-        <v>679308</v>
+        <v>683737</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D253" t="n">
-        <v>882105</v>
+        <v>901106</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>8837</v>
+        <v>8883</v>
       </c>
       <c r="D254" t="n">
-        <v>11084336</v>
+        <v>11143394</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D257" t="n">
-        <v>60173</v>
+        <v>60537</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3048</v>
+        <v>3070</v>
       </c>
       <c r="D258" t="n">
-        <v>4539350</v>
+        <v>4583791</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>11166</v>
+        <v>11832</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1148</v>
+        <v>1160</v>
       </c>
       <c r="D261" t="n">
-        <v>1688240</v>
+        <v>1721009</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>11279</v>
+        <v>11343</v>
       </c>
       <c r="D264" t="n">
-        <v>14517392</v>
+        <v>14650834</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>4709</v>
+        <v>4743</v>
       </c>
       <c r="D268" t="n">
-        <v>7015254</v>
+        <v>7079549</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D269" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2524</v>
+        <v>2543</v>
       </c>
       <c r="D270" t="n">
-        <v>3717510</v>
+        <v>3767099</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D271" t="n">
-        <v>156860</v>
+        <v>158360</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D273" t="n">
-        <v>260839</v>
+        <v>267346</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>6389</v>
+        <v>6424</v>
       </c>
       <c r="D274" t="n">
-        <v>7908619</v>
+        <v>7958267</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D275" t="n">
-        <v>16662</v>
+        <v>18162</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2229</v>
+        <v>2240</v>
       </c>
       <c r="D277" t="n">
-        <v>3305398</v>
+        <v>3333453</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="D279" t="n">
-        <v>1244604</v>
+        <v>1265120</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D282" t="n">
-        <v>321847</v>
+        <v>334847</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>21944</v>
+        <v>22098</v>
       </c>
       <c r="D283" t="n">
-        <v>27794296</v>
+        <v>28034503</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>9014</v>
+        <v>9084</v>
       </c>
       <c r="D287" t="n">
-        <v>13557060</v>
+        <v>13696523</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2915</v>
+        <v>2938</v>
       </c>
       <c r="D289" t="n">
-        <v>4315062</v>
+        <v>4363646</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D290" t="n">
-        <v>797058</v>
+        <v>801858</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D292" t="n">
-        <v>958294</v>
+        <v>971981</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>18896</v>
+        <v>19072</v>
       </c>
       <c r="D294" t="n">
-        <v>23597486</v>
+        <v>23871042</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D295" t="n">
-        <v>26978</v>
+        <v>33715</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D298" t="n">
-        <v>139478</v>
+        <v>140978</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8065</v>
+        <v>8120</v>
       </c>
       <c r="D299" t="n">
-        <v>12146959</v>
+        <v>12257034</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3875</v>
+        <v>3912</v>
       </c>
       <c r="D300" t="n">
-        <v>5764710</v>
+        <v>5827283</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D302" t="n">
-        <v>231905</v>
+        <v>232348</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D303" t="n">
-        <v>648536</v>
+        <v>671283</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>10575</v>
+        <v>10645</v>
       </c>
       <c r="D304" t="n">
-        <v>13245429</v>
+        <v>13349805</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4299</v>
+        <v>4331</v>
       </c>
       <c r="D308" t="n">
-        <v>6366801</v>
+        <v>6409483</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1469</v>
+        <v>1487</v>
       </c>
       <c r="D309" t="n">
-        <v>2167781</v>
+        <v>2200873</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D310" t="n">
-        <v>342416</v>
+        <v>344027</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D313" t="n">
-        <v>388314</v>
+        <v>389814</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>10654</v>
+        <v>10712</v>
       </c>
       <c r="D314" t="n">
-        <v>13954579</v>
+        <v>14033707</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>4242</v>
+        <v>4263</v>
       </c>
       <c r="D318" t="n">
-        <v>6389274</v>
+        <v>6458663</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2774</v>
+        <v>2791</v>
       </c>
       <c r="D319" t="n">
-        <v>4212706</v>
+        <v>4247715</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D320" t="n">
-        <v>405915</v>
+        <v>407015</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D321" t="n">
-        <v>225983</v>
+        <v>227483</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>12854</v>
+        <v>12936</v>
       </c>
       <c r="D322" t="n">
-        <v>17003117</v>
+        <v>17130263</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4372</v>
+        <v>4397</v>
       </c>
       <c r="D326" t="n">
-        <v>6615391</v>
+        <v>6705541</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3164</v>
+        <v>3180</v>
       </c>
       <c r="D328" t="n">
-        <v>4739017</v>
+        <v>4774957</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D330" t="n">
-        <v>343045</v>
+        <v>344545</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7696</v>
+        <v>7757</v>
       </c>
       <c r="D331" t="n">
-        <v>9552005</v>
+        <v>9633042</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D333" t="n">
-        <v>10452</v>
+        <v>11430</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2532</v>
+        <v>2544</v>
       </c>
       <c r="D336" t="n">
-        <v>3744330</v>
+        <v>3764217</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="D338" t="n">
-        <v>1369558</v>
+        <v>1417495</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D340" t="n">
-        <v>229113</v>
+        <v>239113</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>8669</v>
+        <v>8746</v>
       </c>
       <c r="D341" t="n">
-        <v>10878362</v>
+        <v>10987834</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3505</v>
+        <v>3526</v>
       </c>
       <c r="D346" t="n">
-        <v>5183359</v>
+        <v>5215383</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="D347" t="n">
-        <v>2197071</v>
+        <v>2220983</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D350" t="n">
-        <v>223376</v>
+        <v>223636</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>37446</v>
+        <v>37748</v>
       </c>
       <c r="D351" t="n">
-        <v>47294491</v>
+        <v>47799794</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>18451</v>
+        <v>18595</v>
       </c>
       <c r="D357" t="n">
-        <v>27463925</v>
+        <v>27792844</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>9258</v>
+        <v>9344</v>
       </c>
       <c r="D360" t="n">
-        <v>13689930</v>
+        <v>13888046</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1134</v>
+        <v>1145</v>
       </c>
       <c r="D362" t="n">
-        <v>1672165</v>
+        <v>1714283</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4460</v>
+        <v>4488</v>
       </c>
       <c r="D363" t="n">
-        <v>5489820</v>
+        <v>5516840</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D364" t="n">
-        <v>7437</v>
+        <v>8978</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="D366" t="n">
-        <v>2420741</v>
+        <v>2431493</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D367" t="n">
-        <v>983161</v>
+        <v>988993</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D370" t="n">
-        <v>143938</v>
+        <v>146938</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>21895</v>
+        <v>22018</v>
       </c>
       <c r="D371" t="n">
-        <v>27272906</v>
+        <v>27412857</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>10952</v>
+        <v>11017</v>
       </c>
       <c r="D375" t="n">
-        <v>16245120</v>
+        <v>16382730</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>5365</v>
+        <v>5390</v>
       </c>
       <c r="D377" t="n">
-        <v>7914252</v>
+        <v>7954778</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>16334</v>
+        <v>16481</v>
       </c>
       <c r="D380" t="n">
-        <v>20526681</v>
+        <v>20761866</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D383" t="n">
-        <v>130156</v>
+        <v>132238</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>7301</v>
+        <v>7371</v>
       </c>
       <c r="D384" t="n">
-        <v>11103147</v>
+        <v>11268924</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2991</v>
+        <v>3017</v>
       </c>
       <c r="D386" t="n">
-        <v>4436140</v>
+        <v>4488155</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D387" t="n">
-        <v>1305423</v>
+        <v>1315423</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D388" t="n">
-        <v>473241</v>
+        <v>479571</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>20595</v>
+        <v>20748</v>
       </c>
       <c r="D389" t="n">
-        <v>25777585</v>
+        <v>26015443</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>7951</v>
+        <v>8005</v>
       </c>
       <c r="D393" t="n">
-        <v>11843526</v>
+        <v>11959478</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3190</v>
+        <v>3214</v>
       </c>
       <c r="D395" t="n">
-        <v>4823891</v>
+        <v>4912182</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D398" t="n">
-        <v>796038</v>
+        <v>812018</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4621</v>
+        <v>4644</v>
       </c>
       <c r="D399" t="n">
-        <v>5754754</v>
+        <v>5793803</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1524</v>
+        <v>1533</v>
       </c>
       <c r="D402" t="n">
-        <v>2232297</v>
+        <v>2242549</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D403" t="n">
-        <v>927877</v>
+        <v>931278</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D405" t="n">
-        <v>178099</v>
+        <v>181099</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>25066</v>
+        <v>25193</v>
       </c>
       <c r="D406" t="n">
-        <v>30919338</v>
+        <v>31054000</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>10196</v>
+        <v>10238</v>
       </c>
       <c r="D409" t="n">
-        <v>15132592</v>
+        <v>15220171</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>6905</v>
+        <v>6937</v>
       </c>
       <c r="D411" t="n">
-        <v>10170337</v>
+        <v>10277053</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D413" t="n">
-        <v>641536</v>
+        <v>644036</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>12600</v>
+        <v>12671</v>
       </c>
       <c r="D414" t="n">
-        <v>15458810</v>
+        <v>15548501</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5834</v>
+        <v>5880</v>
       </c>
       <c r="D419" t="n">
-        <v>8553132</v>
+        <v>8629688</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2063</v>
+        <v>2071</v>
       </c>
       <c r="D421" t="n">
-        <v>3059748</v>
+        <v>3078647</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D423" t="n">
-        <v>361389</v>
+        <v>363249</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>39123</v>
+        <v>39356</v>
       </c>
       <c r="D424" t="n">
-        <v>53609747</v>
+        <v>54054988</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>9738</v>
+        <v>9799</v>
       </c>
       <c r="D428" t="n">
-        <v>14737805</v>
+        <v>14925015</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>9052</v>
+        <v>9098</v>
       </c>
       <c r="D430" t="n">
-        <v>13526673</v>
+        <v>13685471</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D432" t="n">
-        <v>869044</v>
+        <v>878127</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>17151</v>
+        <v>17206</v>
       </c>
       <c r="D434" t="n">
-        <v>32774515</v>
+        <v>32992757</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3941</v>
+        <v>3956</v>
       </c>
       <c r="D437" t="n">
-        <v>8078607</v>
+        <v>8140751</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>5639</v>
+        <v>5658</v>
       </c>
       <c r="D439" t="n">
-        <v>11720603</v>
+        <v>11823621</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D442" t="n">
-        <v>666578</v>
+        <v>675578</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>12586</v>
+        <v>12666</v>
       </c>
       <c r="D444" t="n">
-        <v>15614575</v>
+        <v>15715144</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D446" t="n">
-        <v>115406</v>
+        <v>116072</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4248</v>
+        <v>4277</v>
       </c>
       <c r="D447" t="n">
-        <v>6347270</v>
+        <v>6401945</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>2172</v>
+        <v>2182</v>
       </c>
       <c r="D449" t="n">
-        <v>3171849</v>
+        <v>3192769</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D451" t="n">
-        <v>313233</v>
+        <v>319049</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>73908</v>
+        <v>74642</v>
       </c>
       <c r="D452" t="n">
-        <v>92550419</v>
+        <v>93671477</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D455" t="n">
-        <v>534003</v>
+        <v>544773</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>28595</v>
+        <v>28843</v>
       </c>
       <c r="D456" t="n">
-        <v>43989824</v>
+        <v>44776267</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>15846</v>
+        <v>16021</v>
       </c>
       <c r="D458" t="n">
-        <v>24354818</v>
+        <v>24910642</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="D463" t="n">
-        <v>2232617</v>
+        <v>2284902</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>22392</v>
+        <v>22614</v>
       </c>
       <c r="D465" t="n">
-        <v>28703751</v>
+        <v>29059291</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D468" t="n">
-        <v>264476</v>
+        <v>275763</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>8646</v>
+        <v>8705</v>
       </c>
       <c r="D469" t="n">
-        <v>13033746</v>
+        <v>13200963</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D470" t="n">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>6112</v>
+        <v>6171</v>
       </c>
       <c r="D471" t="n">
-        <v>9265122</v>
+        <v>9451838</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D473" t="n">
-        <v>563178</v>
+        <v>565677</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>36620</v>
+        <v>36937</v>
       </c>
       <c r="D474" t="n">
-        <v>44983288</v>
+        <v>45414332</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D477" t="n">
-        <v>471248</v>
+        <v>477803</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>12674</v>
+        <v>12753</v>
       </c>
       <c r="D478" t="n">
-        <v>19004177</v>
+        <v>19206565</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>5554</v>
+        <v>5596</v>
       </c>
       <c r="D480" t="n">
-        <v>8294427</v>
+        <v>8400911</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D481" t="n">
-        <v>559390</v>
+        <v>564575</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D482" t="n">
-        <v>750558</v>
+        <v>770092</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>16129</v>
+        <v>16224</v>
       </c>
       <c r="D483" t="n">
-        <v>19679257</v>
+        <v>19847341</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>4860</v>
+        <v>4885</v>
       </c>
       <c r="D488" t="n">
-        <v>7220220</v>
+        <v>7253815</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2395</v>
+        <v>2408</v>
       </c>
       <c r="D490" t="n">
-        <v>3514007</v>
+        <v>3534283</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D491" t="n">
-        <v>228673</v>
+        <v>230173</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D492" t="n">
-        <v>584102</v>
+        <v>587102</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>46385</v>
+        <v>47005</v>
       </c>
       <c r="D493" t="n">
-        <v>62640632</v>
+        <v>63951768</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>15733</v>
+        <v>15840</v>
       </c>
       <c r="D497" t="n">
-        <v>24062826</v>
+        <v>24380317</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>15649</v>
+        <v>15817</v>
       </c>
       <c r="D499" t="n">
-        <v>24260116</v>
+        <v>24830998</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>85119</v>
+        <v>86394</v>
       </c>
       <c r="D502" t="n">
-        <v>117184775</v>
+        <v>120083345</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D505" t="n">
-        <v>262958</v>
+        <v>271556</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>28728</v>
+        <v>29031</v>
       </c>
       <c r="D507" t="n">
-        <v>44611773</v>
+        <v>45592607</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D508" t="n">
-        <v>92260</v>
+        <v>93633</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>30733</v>
+        <v>31152</v>
       </c>
       <c r="D509" t="n">
-        <v>48177310</v>
+        <v>49616335</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D511" t="n">
-        <v>413367</v>
+        <v>415367</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="D512" t="n">
-        <v>1378976</v>
+        <v>1411104</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>202441</v>
+        <v>204929</v>
       </c>
       <c r="D513" t="n">
-        <v>271673286</v>
+        <v>276806702</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D515" t="n">
-        <v>261419</v>
+        <v>281419</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="D518" t="n">
-        <v>1161448</v>
+        <v>1200426</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D519" t="n">
-        <v>63510</v>
+        <v>73510</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>103713</v>
+        <v>104877</v>
       </c>
       <c r="D520" t="n">
-        <v>165836226</v>
+        <v>170719632</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D521" t="n">
-        <v>809872</v>
+        <v>861855</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D522" t="n">
-        <v>38974</v>
+        <v>47957</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>80444</v>
+        <v>81456</v>
       </c>
       <c r="D523" t="n">
-        <v>129711929</v>
+        <v>133932048</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="D525" t="n">
-        <v>1820907</v>
+        <v>1837024</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>4279</v>
+        <v>4317</v>
       </c>
       <c r="D527" t="n">
-        <v>6392400</v>
+        <v>6526776</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>52797</v>
+        <v>53489</v>
       </c>
       <c r="D530" t="n">
-        <v>70807007</v>
+        <v>72209221</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D534" t="n">
-        <v>256793</v>
+        <v>259661</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>17701</v>
+        <v>17849</v>
       </c>
       <c r="D535" t="n">
-        <v>27190385</v>
+        <v>27681131</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>16558</v>
+        <v>16721</v>
       </c>
       <c r="D537" t="n">
-        <v>25486460</v>
+        <v>26054233</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D540" t="n">
-        <v>705747</v>
+        <v>720149</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>94755</v>
+        <v>96356</v>
       </c>
       <c r="D542" t="n">
-        <v>133693643</v>
+        <v>137406746</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D543" t="n">
-        <v>27765</v>
+        <v>37765</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D545" t="n">
-        <v>246699</v>
+        <v>259774</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>28176</v>
+        <v>28437</v>
       </c>
       <c r="D546" t="n">
-        <v>43738256</v>
+        <v>44787121</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>33932</v>
+        <v>34399</v>
       </c>
       <c r="D548" t="n">
-        <v>53207261</v>
+        <v>54863214</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D550" t="n">
-        <v>393243</v>
+        <v>401733</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="D552" t="n">
-        <v>1807295</v>
+        <v>1824041</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>73520</v>
+        <v>74640</v>
       </c>
       <c r="D553" t="n">
-        <v>100595802</v>
+        <v>103022216</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D557" t="n">
-        <v>238203</v>
+        <v>250553</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>21308</v>
+        <v>21499</v>
       </c>
       <c r="D558" t="n">
-        <v>32847372</v>
+        <v>33503073</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>24886</v>
+        <v>25216</v>
       </c>
       <c r="D560" t="n">
-        <v>38532851</v>
+        <v>39537903</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D561" t="n">
-        <v>378663</v>
+        <v>380163</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="D562" t="n">
-        <v>1388660</v>
+        <v>1420398</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>56229</v>
+        <v>57150</v>
       </c>
       <c r="D563" t="n">
-        <v>78255638</v>
+        <v>80395335</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>16528</v>
+        <v>16678</v>
       </c>
       <c r="D567" t="n">
-        <v>25450552</v>
+        <v>25949601</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D568" t="n">
-        <v>57561</v>
+        <v>59061</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>19398</v>
+        <v>19626</v>
       </c>
       <c r="D569" t="n">
-        <v>29881378</v>
+        <v>30630988</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D570" t="n">
-        <v>277781</v>
+        <v>281513</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D571" t="n">
-        <v>592824</v>
+        <v>598458</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>51976</v>
+        <v>52601</v>
       </c>
       <c r="D572" t="n">
-        <v>69505433</v>
+        <v>70914668</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D575" t="n">
-        <v>245062</v>
+        <v>246562</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>18664</v>
+        <v>18829</v>
       </c>
       <c r="D576" t="n">
-        <v>28609403</v>
+        <v>29136303</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>16520</v>
+        <v>16714</v>
       </c>
       <c r="D578" t="n">
-        <v>25221881</v>
+        <v>25866649</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D580" t="n">
-        <v>408132</v>
+        <v>413449</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D581" t="n">
-        <v>713776</v>
+        <v>736062</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>51273</v>
+        <v>51456</v>
       </c>
       <c r="D582" t="n">
-        <v>68851418</v>
+        <v>69206237</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D586" t="n">
-        <v>14809</v>
+        <v>19118</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>15691</v>
+        <v>15731</v>
       </c>
       <c r="D588" t="n">
-        <v>23271588</v>
+        <v>23403390</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>4283</v>
+        <v>4295</v>
       </c>
       <c r="D589" t="n">
-        <v>6247165</v>
+        <v>6281513</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D594" t="n">
-        <v>784081</v>
+        <v>791921</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>20534</v>
+        <v>20664</v>
       </c>
       <c r="D595" t="n">
-        <v>27321758</v>
+        <v>27545267</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>8525</v>
+        <v>8588</v>
       </c>
       <c r="D599" t="n">
-        <v>12717422</v>
+        <v>12914262</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>6086</v>
+        <v>6122</v>
       </c>
       <c r="D601" t="n">
-        <v>9016339</v>
+        <v>9136021</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D604" t="n">
-        <v>516444</v>
+        <v>519444</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>29595</v>
+        <v>29719</v>
       </c>
       <c r="D606" t="n">
-        <v>60652344</v>
+        <v>61277131</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2983</v>
+        <v>3000</v>
       </c>
       <c r="D608" t="n">
-        <v>6116252</v>
+        <v>6200380</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D609" t="n">
-        <v>804159</v>
+        <v>825982</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D611" t="n">
-        <v>194523</v>
+        <v>199530</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D612" t="n">
-        <v>410487</v>
+        <v>415887</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>25052</v>
+        <v>25260</v>
       </c>
       <c r="D613" t="n">
-        <v>31465420</v>
+        <v>31771322</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>10138</v>
+        <v>10225</v>
       </c>
       <c r="D618" t="n">
-        <v>15413143</v>
+        <v>15670062</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>3870</v>
+        <v>3895</v>
       </c>
       <c r="D620" t="n">
-        <v>5766197</v>
+        <v>5831674</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D621" t="n">
-        <v>542037</v>
+        <v>543537</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D622" t="n">
-        <v>910027</v>
+        <v>918569</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>16807</v>
+        <v>16927</v>
       </c>
       <c r="D624" t="n">
-        <v>21104356</v>
+        <v>21278802</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>6442</v>
+        <v>6471</v>
       </c>
       <c r="D628" t="n">
-        <v>9634208</v>
+        <v>9706784</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>3198</v>
+        <v>3228</v>
       </c>
       <c r="D630" t="n">
-        <v>4816685</v>
+        <v>4888044</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D632" t="n">
-        <v>366739</v>
+        <v>373720</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>15467</v>
+        <v>15531</v>
       </c>
       <c r="D633" t="n">
-        <v>19476859</v>
+        <v>19565787</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D636" t="n">
-        <v>249527</v>
+        <v>251693</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>5760</v>
+        <v>5804</v>
       </c>
       <c r="D637" t="n">
-        <v>8562993</v>
+        <v>8666381</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1363</v>
+        <v>1377</v>
       </c>
       <c r="D639" t="n">
-        <v>2016905</v>
+        <v>2058233</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D642" t="n">
-        <v>495445</v>
+        <v>499945</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>8460</v>
+        <v>8505</v>
       </c>
       <c r="D643" t="n">
-        <v>10811027</v>
+        <v>10857275</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2810</v>
+        <v>2823</v>
       </c>
       <c r="D648" t="n">
-        <v>4140262</v>
+        <v>4150648</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D650" t="n">
-        <v>1392080</v>
+        <v>1392746</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D652" t="n">
-        <v>258012</v>
+        <v>261524</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>32850</v>
+        <v>33127</v>
       </c>
       <c r="D653" t="n">
-        <v>40567499</v>
+        <v>40939679</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D657" t="n">
-        <v>259636</v>
+        <v>267851</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>12456</v>
+        <v>12553</v>
       </c>
       <c r="D658" t="n">
-        <v>18849047</v>
+        <v>19073389</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>5752</v>
+        <v>5806</v>
       </c>
       <c r="D660" t="n">
-        <v>8756673</v>
+        <v>8956688</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D663" t="n">
-        <v>1118096</v>
+        <v>1129341</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>12821</v>
+        <v>12893</v>
       </c>
       <c r="D664" t="n">
-        <v>15406677</v>
+        <v>15493964</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3992</v>
+        <v>4007</v>
       </c>
       <c r="D669" t="n">
-        <v>5863104</v>
+        <v>5885124</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="D670" t="n">
-        <v>1819677</v>
+        <v>1844028</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D673" t="n">
-        <v>438141</v>
+        <v>439641</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>31445</v>
+        <v>31613</v>
       </c>
       <c r="D674" t="n">
-        <v>39021845</v>
+        <v>39293841</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>11644</v>
+        <v>11706</v>
       </c>
       <c r="D678" t="n">
-        <v>17273349</v>
+        <v>17380274</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3423</v>
+        <v>3441</v>
       </c>
       <c r="D680" t="n">
-        <v>5027448</v>
+        <v>5055760</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D682" t="n">
-        <v>774294</v>
+        <v>775746</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D683" t="n">
-        <v>873717</v>
+        <v>885463</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>8442</v>
+        <v>8495</v>
       </c>
       <c r="D684" t="n">
-        <v>10658607</v>
+        <v>10717743</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D685" t="n">
-        <v>98145</v>
+        <v>99645</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>2845</v>
+        <v>2857</v>
       </c>
       <c r="D686" t="n">
-        <v>4209885</v>
+        <v>4222926</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>1446</v>
+        <v>1460</v>
       </c>
       <c r="D688" t="n">
-        <v>2099924</v>
+        <v>2132323</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D689" t="n">
-        <v>415988</v>
+        <v>416896</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>4312</v>
+        <v>4340</v>
       </c>
       <c r="D692" t="n">
-        <v>5193782</v>
+        <v>5224445</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D696" t="n">
-        <v>1304263</v>
+        <v>1317320</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D698" t="n">
-        <v>720515</v>
+        <v>726497</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>10488</v>
+        <v>10551</v>
       </c>
       <c r="D701" t="n">
-        <v>13009934</v>
+        <v>13089470</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3817</v>
+        <v>3842</v>
       </c>
       <c r="D705" t="n">
-        <v>5669016</v>
+        <v>5698913</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="D706" t="n">
-        <v>1282660</v>
+        <v>1302992</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>21703</v>
+        <v>21815</v>
       </c>
       <c r="D710" t="n">
-        <v>26569714</v>
+        <v>26680237</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D712" t="n">
-        <v>65020</v>
+        <v>68020</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>6310</v>
+        <v>6338</v>
       </c>
       <c r="D714" t="n">
-        <v>9311531</v>
+        <v>9359097</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>2556</v>
+        <v>2565</v>
       </c>
       <c r="D716" t="n">
-        <v>3722867</v>
+        <v>3734267</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D718" t="n">
-        <v>549365</v>
+        <v>550865</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D720" t="n">
-        <v>551238</v>
+        <v>566696</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>86506</v>
+        <v>87048</v>
       </c>
       <c r="D722" t="n">
-        <v>109415120</v>
+        <v>110326449</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>30222</v>
+        <v>30380</v>
       </c>
       <c r="D727" t="n">
-        <v>45685602</v>
+        <v>46121280</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>15664</v>
+        <v>15768</v>
       </c>
       <c r="D730" t="n">
-        <v>23301973</v>
+        <v>23609235</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="D733" t="n">
-        <v>3283126</v>
+        <v>3293126</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>1695</v>
+        <v>1709</v>
       </c>
       <c r="D735" t="n">
-        <v>2440018</v>
+        <v>2477454</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35662,10 +35662,10 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>12759</v>
+        <v>12890</v>
       </c>
       <c r="D736" t="n">
-        <v>15650668</v>
+        <v>15877627</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D738" t="n">
-        <v>147653</v>
+        <v>157653</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>4568</v>
+        <v>4610</v>
       </c>
       <c r="D739" t="n">
-        <v>6771594</v>
+        <v>6824734</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1709</v>
+        <v>1728</v>
       </c>
       <c r="D741" t="n">
-        <v>2554773</v>
+        <v>2613546</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>19719</v>
+        <v>19790</v>
       </c>
       <c r="D744" t="n">
-        <v>24264875</v>
+        <v>24352305</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36190,10 +36190,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D747" t="n">
-        <v>83568</v>
+        <v>88068</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>7544</v>
+        <v>7576</v>
       </c>
       <c r="D748" t="n">
-        <v>11173391</v>
+        <v>11233473</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>2513</v>
+        <v>2536</v>
       </c>
       <c r="D750" t="n">
-        <v>3689899</v>
+        <v>3739348</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D752" t="n">
-        <v>486124</v>
+        <v>489003</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D753" t="n">
-        <v>620438</v>
+        <v>626072</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>12958</v>
+        <v>13038</v>
       </c>
       <c r="D755" t="n">
-        <v>15970083</v>
+        <v>16064714</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>4691</v>
+        <v>4712</v>
       </c>
       <c r="D759" t="n">
-        <v>6990062</v>
+        <v>7020665</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1796</v>
+        <v>1803</v>
       </c>
       <c r="D761" t="n">
-        <v>2637333</v>
+        <v>2643544</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36958,10 +36958,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D763" t="n">
-        <v>551624</v>
+        <v>554624</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37006,10 +37006,10 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>33095</v>
+        <v>33298</v>
       </c>
       <c r="D764" t="n">
-        <v>41190433</v>
+        <v>41463712</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D768" t="n">
-        <v>172656</v>
+        <v>174156</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>14049</v>
+        <v>14129</v>
       </c>
       <c r="D769" t="n">
-        <v>21024419</v>
+        <v>21192653</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>4785</v>
+        <v>4809</v>
       </c>
       <c r="D771" t="n">
-        <v>7030960</v>
+        <v>7117306</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="D774" t="n">
-        <v>1249153</v>
+        <v>1278872</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>13849</v>
+        <v>13954</v>
       </c>
       <c r="D776" t="n">
-        <v>17127061</v>
+        <v>17311502</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37678,10 +37678,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D778" t="n">
-        <v>134812</v>
+        <v>136312</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>5086</v>
+        <v>5115</v>
       </c>
       <c r="D779" t="n">
-        <v>7480975</v>
+        <v>7537587</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>1320</v>
+        <v>1333</v>
       </c>
       <c r="D780" t="n">
-        <v>1895835</v>
+        <v>1918719</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D782" t="n">
-        <v>713163</v>
+        <v>714663</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -37918,10 +37918,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>7702</v>
+        <v>7771</v>
       </c>
       <c r="D783" t="n">
-        <v>9025830</v>
+        <v>9125503</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -38062,10 +38062,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D786" t="n">
-        <v>33938</v>
+        <v>35876</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1918</v>
+        <v>1935</v>
       </c>
       <c r="D787" t="n">
-        <v>2868368</v>
+        <v>2902746</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="D788" t="n">
-        <v>1742356</v>
+        <v>1775111</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38206,10 +38206,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D789" t="n">
-        <v>229852</v>
+        <v>231158</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>19032</v>
+        <v>19138</v>
       </c>
       <c r="D791" t="n">
-        <v>23154845</v>
+        <v>23277874</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38446,10 +38446,10 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D794" t="n">
-        <v>71022</v>
+        <v>73222</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>6167</v>
+        <v>6187</v>
       </c>
       <c r="D796" t="n">
-        <v>9167190</v>
+        <v>9222366</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>3887</v>
+        <v>3907</v>
       </c>
       <c r="D798" t="n">
-        <v>5774434</v>
+        <v>5818681</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D800" t="n">
-        <v>593534</v>
+        <v>595034</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D801" t="n">
-        <v>562645</v>
+        <v>584067</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38830,10 +38830,10 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>12839</v>
+        <v>12937</v>
       </c>
       <c r="D802" t="n">
-        <v>16220424</v>
+        <v>16336250</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -39070,10 +39070,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>4344</v>
+        <v>4368</v>
       </c>
       <c r="D807" t="n">
-        <v>6495820</v>
+        <v>6573915</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="D809" t="n">
-        <v>2206412</v>
+        <v>2235018</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D811" t="n">
-        <v>774397</v>
+        <v>775747</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39310,10 +39310,10 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D812" t="n">
-        <v>477666</v>
+        <v>487666</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -39358,10 +39358,10 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>37042</v>
+        <v>37346</v>
       </c>
       <c r="D813" t="n">
-        <v>45810046</v>
+        <v>46255707</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -39550,10 +39550,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>14736</v>
+        <v>14821</v>
       </c>
       <c r="D817" t="n">
-        <v>22293232</v>
+        <v>22538147</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>6981</v>
+        <v>7029</v>
       </c>
       <c r="D819" t="n">
-        <v>10451178</v>
+        <v>10552485</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D820" t="n">
-        <v>858586</v>
+        <v>860086</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39790,10 +39790,10 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="D822" t="n">
-        <v>1363956</v>
+        <v>1388965</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -39838,10 +39838,10 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>8686</v>
+        <v>8730</v>
       </c>
       <c r="D823" t="n">
-        <v>10726915</v>
+        <v>10777025</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3015</v>
+        <v>3030</v>
       </c>
       <c r="D829" t="n">
-        <v>4449254</v>
+        <v>4480698</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="D830" t="n">
-        <v>1935620</v>
+        <v>1967439</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D831" t="n">
-        <v>609195</v>
+        <v>612170</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D832" t="n">
-        <v>499536</v>
+        <v>501702</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40318,10 +40318,10 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>69672</v>
+        <v>70349</v>
       </c>
       <c r="D833" t="n">
-        <v>88309420</v>
+        <v>89531657</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -40558,10 +40558,10 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>24375</v>
+        <v>24538</v>
       </c>
       <c r="D838" t="n">
-        <v>37596720</v>
+        <v>38160582</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -40702,10 +40702,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>15068</v>
+        <v>15205</v>
       </c>
       <c r="D841" t="n">
-        <v>22927626</v>
+        <v>23375612</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D843" t="n">
-        <v>687567</v>
+        <v>689067</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="D846" t="n">
-        <v>2724455</v>
+        <v>2745687</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>13016</v>
+        <v>13123</v>
       </c>
       <c r="D847" t="n">
-        <v>16470024</v>
+        <v>16620491</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D850" t="n">
-        <v>98097</v>
+        <v>117535</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>4775</v>
+        <v>4813</v>
       </c>
       <c r="D851" t="n">
-        <v>7465194</v>
+        <v>7609750</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1489</v>
+        <v>1497</v>
       </c>
       <c r="D853" t="n">
-        <v>2282577</v>
+        <v>2309893</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41470,10 +41470,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D857" t="n">
-        <v>502531</v>
+        <v>505531</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>67364</v>
+        <v>67928</v>
       </c>
       <c r="D858" t="n">
-        <v>83892980</v>
+        <v>84773479</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>25145</v>
+        <v>25320</v>
       </c>
       <c r="D864" t="n">
-        <v>38529728</v>
+        <v>39112207</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41902,10 +41902,10 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>16721</v>
+        <v>16840</v>
       </c>
       <c r="D866" t="n">
-        <v>25389412</v>
+        <v>25764886</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="D868" t="n">
-        <v>1379267</v>
+        <v>1389920</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>1894</v>
+        <v>1906</v>
       </c>
       <c r="D869" t="n">
-        <v>2786307</v>
+        <v>2819021</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>8717</v>
+        <v>8756</v>
       </c>
       <c r="D871" t="n">
-        <v>10667012</v>
+        <v>10708573</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>2837</v>
+        <v>2860</v>
       </c>
       <c r="D873" t="n">
-        <v>4202739</v>
+        <v>4262878</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="D874" t="n">
-        <v>1711363</v>
+        <v>1719191</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42382,10 +42382,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D876" t="n">
-        <v>305225</v>
+        <v>306725</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -42430,10 +42430,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>3973</v>
+        <v>3986</v>
       </c>
       <c r="D877" t="n">
-        <v>5119472</v>
+        <v>5138788</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="D880" t="n">
-        <v>1837533</v>
+        <v>1841504</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D884" t="n">
-        <v>189758</v>
+        <v>195597</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>25051</v>
+        <v>25211</v>
       </c>
       <c r="D885" t="n">
-        <v>31457606</v>
+        <v>31670343</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>8504</v>
+        <v>8541</v>
       </c>
       <c r="D889" t="n">
-        <v>12710155</v>
+        <v>12785436</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>5328</v>
+        <v>5359</v>
       </c>
       <c r="D891" t="n">
-        <v>7964036</v>
+        <v>8041161</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43198,10 +43198,10 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D893" t="n">
-        <v>575926</v>
+        <v>577856</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="D894" t="n">
-        <v>863414</v>
+        <v>873914</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>16462</v>
+        <v>16588</v>
       </c>
       <c r="D896" t="n">
-        <v>19862382</v>
+        <v>20016312</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>5800</v>
+        <v>5844</v>
       </c>
       <c r="D900" t="n">
-        <v>8707439</v>
+        <v>8849927</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>2736</v>
+        <v>2758</v>
       </c>
       <c r="D902" t="n">
-        <v>4096257</v>
+        <v>4193633</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D905" t="n">
-        <v>568109</v>
+        <v>574131</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>11054</v>
+        <v>11122</v>
       </c>
       <c r="D906" t="n">
-        <v>13660275</v>
+        <v>13768972</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>3663</v>
+        <v>3695</v>
       </c>
       <c r="D909" t="n">
-        <v>5471464</v>
+        <v>5529362</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>1729</v>
+        <v>1742</v>
       </c>
       <c r="D910" t="n">
-        <v>2583128</v>
+        <v>2609180</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44110,10 +44110,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D912" t="n">
-        <v>365826</v>
+        <v>369364</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44158,10 +44158,10 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>51773</v>
+        <v>52094</v>
       </c>
       <c r="D913" t="n">
-        <v>65109492</v>
+        <v>65620628</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D915" t="n">
-        <v>40447</v>
+        <v>41947</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44398,10 +44398,10 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>23657</v>
+        <v>23824</v>
       </c>
       <c r="D918" t="n">
-        <v>35269421</v>
+        <v>35611563</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>7124</v>
+        <v>7178</v>
       </c>
       <c r="D920" t="n">
-        <v>10586511</v>
+        <v>10747844</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D921" t="n">
-        <v>940634</v>
+        <v>947960</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="D923" t="n">
-        <v>1791079</v>
+        <v>1811078</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>24177</v>
+        <v>24361</v>
       </c>
       <c r="D924" t="n">
-        <v>30170255</v>
+        <v>30395969</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D927" t="n">
-        <v>180629</v>
+        <v>182669</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44878,10 +44878,10 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>10875</v>
+        <v>10956</v>
       </c>
       <c r="D928" t="n">
-        <v>16297988</v>
+        <v>16477682</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>2643</v>
+        <v>2663</v>
       </c>
       <c r="D930" t="n">
-        <v>3875910</v>
+        <v>3919021</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45118,10 +45118,10 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D933" t="n">
-        <v>1212048</v>
+        <v>1231570</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>8028</v>
+        <v>8080</v>
       </c>
       <c r="D934" t="n">
-        <v>10052453</v>
+        <v>10105579</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D938" t="n">
-        <v>125034</v>
+        <v>125700</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>3357</v>
+        <v>3379</v>
       </c>
       <c r="D939" t="n">
-        <v>4951155</v>
+        <v>4969446</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="D940" t="n">
-        <v>1093552</v>
+        <v>1116130</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45550,10 +45550,10 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D942" t="n">
-        <v>323888</v>
+        <v>325388</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -45598,10 +45598,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>14733</v>
+        <v>14812</v>
       </c>
       <c r="D943" t="n">
-        <v>18310351</v>
+        <v>18419125</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D946" t="n">
-        <v>120820</v>
+        <v>122986</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>5843</v>
+        <v>5886</v>
       </c>
       <c r="D947" t="n">
-        <v>8543059</v>
+        <v>8593950</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>1648</v>
+        <v>1657</v>
       </c>
       <c r="D949" t="n">
-        <v>2400716</v>
+        <v>2429951</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -46078,10 +46078,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D953" t="n">
-        <v>483708</v>
+        <v>486508</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46126,10 +46126,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21686</v>
+        <v>21798</v>
       </c>
       <c r="D954" t="n">
-        <v>26912886</v>
+        <v>27032777</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D957" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D958" t="n">
-        <v>202468</v>
+        <v>203467</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>10931</v>
+        <v>11005</v>
       </c>
       <c r="D959" t="n">
-        <v>16018490</v>
+        <v>16121873</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>2393</v>
+        <v>2415</v>
       </c>
       <c r="D961" t="n">
-        <v>3515305</v>
+        <v>3564096</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D962" t="n">
-        <v>529947</v>
+        <v>538917</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D963" t="n">
-        <v>816487</v>
+        <v>817486</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46606,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>9698</v>
+        <v>9765</v>
       </c>
       <c r="D964" t="n">
-        <v>12130976</v>
+        <v>12231698</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46846,10 +46846,10 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>3507</v>
+        <v>3524</v>
       </c>
       <c r="D969" t="n">
-        <v>5210152</v>
+        <v>5245695</v>
       </c>
       <c r="E969" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>1678</v>
+        <v>1689</v>
       </c>
       <c r="D970" t="n">
-        <v>2467275</v>
+        <v>2510737</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>81569</v>
+        <v>82357</v>
       </c>
       <c r="D974" t="n">
-        <v>106982833</v>
+        <v>108530464</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47134,10 +47134,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D975" t="n">
-        <v>84531</v>
+        <v>87780</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D976" t="n">
-        <v>126212</v>
+        <v>127768</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47326,10 +47326,10 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D979" t="n">
-        <v>379122</v>
+        <v>389088</v>
       </c>
       <c r="E979" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>30193</v>
+        <v>30425</v>
       </c>
       <c r="D981" t="n">
-        <v>47243413</v>
+        <v>48094721</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47518,10 +47518,10 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>22105</v>
+        <v>22331</v>
       </c>
       <c r="D983" t="n">
-        <v>34413364</v>
+        <v>35166619</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D985" t="n">
-        <v>810881</v>
+        <v>822331</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>1274</v>
+        <v>1291</v>
       </c>
       <c r="D986" t="n">
-        <v>1907580</v>
+        <v>1951470</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>99427</v>
+        <v>100385</v>
       </c>
       <c r="D987" t="n">
-        <v>126689626</v>
+        <v>128297972</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D994" t="n">
-        <v>547608</v>
+        <v>559102</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>39822</v>
+        <v>40130</v>
       </c>
       <c r="D995" t="n">
-        <v>61961960</v>
+        <v>63070348</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>31271</v>
+        <v>31531</v>
       </c>
       <c r="D998" t="n">
-        <v>48457634</v>
+        <v>49325751</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48286,10 +48286,10 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D999" t="n">
-        <v>993799</v>
+        <v>1011199</v>
       </c>
       <c r="E999" t="inlineStr">
         <is>
@@ -48382,10 +48382,10 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>2862</v>
+        <v>2888</v>
       </c>
       <c r="D1001" t="n">
-        <v>4241033</v>
+        <v>4334102</v>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>12460</v>
+        <v>12564</v>
       </c>
       <c r="D1002" t="n">
-        <v>16258958</v>
+        <v>16429482</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>3990</v>
+        <v>4007</v>
       </c>
       <c r="D1007" t="n">
-        <v>6091865</v>
+        <v>6146083</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
@@ -48718,10 +48718,10 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="D1008" t="n">
-        <v>2071241</v>
+        <v>2118548</v>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
@@ -48910,10 +48910,10 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D1012" t="n">
-        <v>328068</v>
+        <v>340287</v>
       </c>
       <c r="E1012" t="inlineStr">
         <is>
@@ -48958,10 +48958,10 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>63268</v>
+        <v>63767</v>
       </c>
       <c r="D1013" t="n">
-        <v>79657872</v>
+        <v>80418119</v>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
@@ -49006,10 +49006,10 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1014" t="n">
-        <v>68137</v>
+        <v>70063</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
@@ -49054,10 +49054,10 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1015" t="n">
-        <v>73904</v>
+        <v>74040</v>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
@@ -49150,10 +49150,10 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1017" t="n">
-        <v>293932</v>
+        <v>294205</v>
       </c>
       <c r="E1017" t="inlineStr">
         <is>
@@ -49198,10 +49198,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>20325</v>
+        <v>20467</v>
       </c>
       <c r="D1018" t="n">
-        <v>30494308</v>
+        <v>30822697</v>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
@@ -49294,10 +49294,10 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>14537</v>
+        <v>14650</v>
       </c>
       <c r="D1020" t="n">
-        <v>21954078</v>
+        <v>22307496</v>
       </c>
       <c r="E1020" t="inlineStr">
         <is>
@@ -49342,10 +49342,10 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D1021" t="n">
-        <v>756301</v>
+        <v>771130</v>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
@@ -49438,10 +49438,10 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D1023" t="n">
-        <v>1425404</v>
+        <v>1438632</v>
       </c>
       <c r="E1023" t="inlineStr">
         <is>
@@ -49486,10 +49486,10 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>32467</v>
+        <v>32728</v>
       </c>
       <c r="D1024" t="n">
-        <v>40692810</v>
+        <v>41069697</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
@@ -49726,10 +49726,10 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>11991</v>
+        <v>12067</v>
       </c>
       <c r="D1029" t="n">
-        <v>18148280</v>
+        <v>18335818</v>
       </c>
       <c r="E1029" t="inlineStr">
         <is>
@@ -49822,10 +49822,10 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>7345</v>
+        <v>7417</v>
       </c>
       <c r="D1031" t="n">
-        <v>11176900</v>
+        <v>11400883</v>
       </c>
       <c r="E1031" t="inlineStr">
         <is>
@@ -49870,10 +49870,10 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D1032" t="n">
-        <v>831678</v>
+        <v>835615</v>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
@@ -49918,10 +49918,10 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="D1033" t="n">
-        <v>1185799</v>
+        <v>1199574</v>
       </c>
       <c r="E1033" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18930</v>
+        <v>19084</v>
       </c>
       <c r="D2" t="n">
-        <v>23875160</v>
+        <v>24083257</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6923</v>
+        <v>6967</v>
       </c>
       <c r="D6" t="n">
-        <v>10426638</v>
+        <v>10566041</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3840</v>
+        <v>3869</v>
       </c>
       <c r="D8" t="n">
-        <v>5746715</v>
+        <v>5829505</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D9" t="n">
-        <v>311372</v>
+        <v>312872</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D11" t="n">
-        <v>794790</v>
+        <v>817243</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12614</v>
+        <v>12689</v>
       </c>
       <c r="D12" t="n">
-        <v>15880968</v>
+        <v>15969211</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3585</v>
+        <v>3604</v>
       </c>
       <c r="D16" t="n">
-        <v>5269024</v>
+        <v>5292059</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="D18" t="n">
-        <v>2487492</v>
+        <v>2511661</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D19" t="n">
-        <v>605073</v>
+        <v>606573</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D21" t="n">
-        <v>419848</v>
+        <v>429981</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16342</v>
+        <v>16449</v>
       </c>
       <c r="D22" t="n">
-        <v>20105383</v>
+        <v>20248657</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5441</v>
+        <v>5460</v>
       </c>
       <c r="D26" t="n">
-        <v>8062048</v>
+        <v>8093036</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1990</v>
+        <v>2003</v>
       </c>
       <c r="D28" t="n">
-        <v>2936666</v>
+        <v>2957623</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D29" t="n">
-        <v>377662</v>
+        <v>379162</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D31" t="n">
-        <v>679090</v>
+        <v>687507</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7181</v>
+        <v>7202</v>
       </c>
       <c r="D32" t="n">
-        <v>9487095</v>
+        <v>9509145</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>70808</v>
+        <v>71474</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1796</v>
+        <v>1802</v>
       </c>
       <c r="D35" t="n">
-        <v>2600435</v>
+        <v>2604390</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D37" t="n">
-        <v>925973</v>
+        <v>936907</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D40" t="n">
-        <v>225460</v>
+        <v>228433</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25173</v>
+        <v>25386</v>
       </c>
       <c r="D41" t="n">
-        <v>31051066</v>
+        <v>31323023</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8677</v>
+        <v>8731</v>
       </c>
       <c r="D47" t="n">
-        <v>13109838</v>
+        <v>13238477</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4406</v>
+        <v>4437</v>
       </c>
       <c r="D49" t="n">
-        <v>6592889</v>
+        <v>6675006</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="D52" t="n">
-        <v>1202920</v>
+        <v>1208731</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9195</v>
+        <v>9255</v>
       </c>
       <c r="D53" t="n">
-        <v>11785166</v>
+        <v>11880626</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>7706</v>
+        <v>8581</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56" t="n">
-        <v>108345</v>
+        <v>109011</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3076</v>
+        <v>3099</v>
       </c>
       <c r="D57" t="n">
-        <v>4567880</v>
+        <v>4618792</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1182</v>
+        <v>1196</v>
       </c>
       <c r="D59" t="n">
-        <v>1699326</v>
+        <v>1717136</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D60" t="n">
-        <v>287227</v>
+        <v>288961</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D61" t="n">
-        <v>468760</v>
+        <v>477619</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>42495</v>
+        <v>42805</v>
       </c>
       <c r="D62" t="n">
-        <v>55193212</v>
+        <v>55652233</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D64" t="n">
-        <v>226444</v>
+        <v>233919</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14967</v>
+        <v>15060</v>
       </c>
       <c r="D67" t="n">
-        <v>22836842</v>
+        <v>23137080</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6176</v>
+        <v>6217</v>
       </c>
       <c r="D69" t="n">
-        <v>9337673</v>
+        <v>9466290</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D74" t="n">
-        <v>684702</v>
+        <v>698338</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>53721</v>
+        <v>54200</v>
       </c>
       <c r="D76" t="n">
-        <v>69100362</v>
+        <v>69807847</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D79" t="n">
-        <v>127308</v>
+        <v>131125</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>20670</v>
+        <v>20838</v>
       </c>
       <c r="D80" t="n">
-        <v>31932073</v>
+        <v>32495801</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>11129</v>
+        <v>11222</v>
       </c>
       <c r="D82" t="n">
-        <v>16988917</v>
+        <v>17301597</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D84" t="n">
-        <v>547258</v>
+        <v>558758</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="D86" t="n">
-        <v>1712576</v>
+        <v>1727367</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>28502</v>
+        <v>28748</v>
       </c>
       <c r="D87" t="n">
-        <v>36205406</v>
+        <v>36575414</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D89" t="n">
-        <v>220008</v>
+        <v>220674</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9856</v>
+        <v>9946</v>
       </c>
       <c r="D91" t="n">
-        <v>15385112</v>
+        <v>15710796</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5725</v>
+        <v>5770</v>
       </c>
       <c r="D93" t="n">
-        <v>8810989</v>
+        <v>8934490</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="D96" t="n">
-        <v>1460731</v>
+        <v>1476852</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>25386</v>
+        <v>25613</v>
       </c>
       <c r="D97" t="n">
-        <v>31919337</v>
+        <v>32228513</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D101" t="n">
-        <v>116185</v>
+        <v>128849</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10332</v>
+        <v>10399</v>
       </c>
       <c r="D102" t="n">
-        <v>15650802</v>
+        <v>15824078</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3845</v>
+        <v>3880</v>
       </c>
       <c r="D104" t="n">
-        <v>5841061</v>
+        <v>5957921</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D108" t="n">
-        <v>940537</v>
+        <v>960085</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>99616</v>
+        <v>100622</v>
       </c>
       <c r="D109" t="n">
-        <v>130740196</v>
+        <v>132772859</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>35225</v>
+        <v>35500</v>
       </c>
       <c r="D116" t="n">
-        <v>54912029</v>
+        <v>55847774</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>25472</v>
+        <v>25708</v>
       </c>
       <c r="D118" t="n">
-        <v>39663708</v>
+        <v>40555288</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D121" t="n">
-        <v>1075128</v>
+        <v>1087366</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2830</v>
+        <v>2856</v>
       </c>
       <c r="D125" t="n">
-        <v>4195188</v>
+        <v>4276902</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32375</v>
+        <v>32589</v>
       </c>
       <c r="D126" t="n">
-        <v>43094924</v>
+        <v>43485317</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D129" t="n">
-        <v>192490</v>
+        <v>203990</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>11512</v>
+        <v>11588</v>
       </c>
       <c r="D130" t="n">
-        <v>17846887</v>
+        <v>18159311</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3927</v>
+        <v>3956</v>
       </c>
       <c r="D132" t="n">
-        <v>6171049</v>
+        <v>6300689</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D135" t="n">
-        <v>736553</v>
+        <v>754169</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>18183</v>
+        <v>18349</v>
       </c>
       <c r="D136" t="n">
-        <v>22672035</v>
+        <v>22911893</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D139" t="n">
-        <v>65276</v>
+        <v>68606</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8766</v>
+        <v>8833</v>
       </c>
       <c r="D140" t="n">
-        <v>13303388</v>
+        <v>13484882</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2637</v>
+        <v>2661</v>
       </c>
       <c r="D142" t="n">
-        <v>3939410</v>
+        <v>4000963</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D144" t="n">
-        <v>477437</v>
+        <v>480437</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D146" t="n">
-        <v>787654</v>
+        <v>795119</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15535</v>
+        <v>15637</v>
       </c>
       <c r="D147" t="n">
-        <v>19340492</v>
+        <v>19479253</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6851</v>
+        <v>6888</v>
       </c>
       <c r="D151" t="n">
-        <v>10085183</v>
+        <v>10156382</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2273</v>
+        <v>2291</v>
       </c>
       <c r="D153" t="n">
-        <v>3316398</v>
+        <v>3353176</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D156" t="n">
-        <v>680835</v>
+        <v>684615</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6736</v>
+        <v>6770</v>
       </c>
       <c r="D157" t="n">
-        <v>8241471</v>
+        <v>8286675</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2212</v>
+        <v>2223</v>
       </c>
       <c r="D160" t="n">
-        <v>3262641</v>
+        <v>3283422</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D161" t="n">
-        <v>1159963</v>
+        <v>1167357</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D164" t="n">
-        <v>151603</v>
+        <v>153103</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8517</v>
+        <v>8578</v>
       </c>
       <c r="D165" t="n">
-        <v>10472525</v>
+        <v>10541571</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3196</v>
+        <v>3209</v>
       </c>
       <c r="D168" t="n">
-        <v>4747465</v>
+        <v>4774677</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1569</v>
+        <v>1577</v>
       </c>
       <c r="D169" t="n">
-        <v>2334722</v>
+        <v>2365884</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D170" t="n">
-        <v>245350</v>
+        <v>252345</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D172" t="n">
-        <v>279757</v>
+        <v>287858</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6423</v>
+        <v>6470</v>
       </c>
       <c r="D173" t="n">
-        <v>7991136</v>
+        <v>8052410</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2224</v>
+        <v>2234</v>
       </c>
       <c r="D178" t="n">
-        <v>3278476</v>
+        <v>3287504</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D180" t="n">
-        <v>1130437</v>
+        <v>1135632</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D181" t="n">
-        <v>231966</v>
+        <v>241966</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D182" t="n">
-        <v>210377</v>
+        <v>217877</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>18429</v>
+        <v>18567</v>
       </c>
       <c r="D183" t="n">
-        <v>23226548</v>
+        <v>23428484</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D184" t="n">
-        <v>39015</v>
+        <v>49015</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>7144</v>
+        <v>7188</v>
       </c>
       <c r="D188" t="n">
-        <v>10755658</v>
+        <v>10835609</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2600</v>
+        <v>2625</v>
       </c>
       <c r="D191" t="n">
-        <v>4021832</v>
+        <v>4119706</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D194" t="n">
-        <v>846511</v>
+        <v>852511</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3446</v>
+        <v>3469</v>
       </c>
       <c r="D195" t="n">
-        <v>4307354</v>
+        <v>4342625</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="D197" t="n">
-        <v>2384877</v>
+        <v>2399395</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D199" t="n">
-        <v>910205</v>
+        <v>912667</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>10555</v>
+        <v>10600</v>
       </c>
       <c r="D203" t="n">
-        <v>13167993</v>
+        <v>13227728</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3850</v>
+        <v>3874</v>
       </c>
       <c r="D207" t="n">
-        <v>5764046</v>
+        <v>5821500</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1862</v>
+        <v>1875</v>
       </c>
       <c r="D209" t="n">
-        <v>2708851</v>
+        <v>2735584</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D212" t="n">
-        <v>439991</v>
+        <v>455994</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>19230</v>
+        <v>19324</v>
       </c>
       <c r="D213" t="n">
-        <v>23892826</v>
+        <v>24019692</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>8402</v>
+        <v>8453</v>
       </c>
       <c r="D217" t="n">
-        <v>12464741</v>
+        <v>12548689</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="D218" t="n">
-        <v>2034782</v>
+        <v>2052897</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D219" t="n">
-        <v>416435</v>
+        <v>417471</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D220" t="n">
-        <v>868428</v>
+        <v>873694</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>29088</v>
+        <v>29226</v>
       </c>
       <c r="D221" t="n">
-        <v>36496434</v>
+        <v>36653230</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D224" t="n">
-        <v>437285</v>
+        <v>439451</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>11435</v>
+        <v>11498</v>
       </c>
       <c r="D225" t="n">
-        <v>16796238</v>
+        <v>16913187</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2989</v>
+        <v>3009</v>
       </c>
       <c r="D227" t="n">
-        <v>4411142</v>
+        <v>4447091</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D230" t="n">
-        <v>1100419</v>
+        <v>1107919</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>33193</v>
+        <v>33459</v>
       </c>
       <c r="D231" t="n">
-        <v>41905134</v>
+        <v>42261619</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D235" t="n">
-        <v>332514</v>
+        <v>334927</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>16770</v>
+        <v>16898</v>
       </c>
       <c r="D236" t="n">
-        <v>25477645</v>
+        <v>25776963</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3175</v>
+        <v>3198</v>
       </c>
       <c r="D238" t="n">
-        <v>4743919</v>
+        <v>4800041</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="D241" t="n">
-        <v>1566845</v>
+        <v>1597898</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>27476</v>
+        <v>27630</v>
       </c>
       <c r="D242" t="n">
-        <v>34563857</v>
+        <v>34751798</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D243" t="n">
-        <v>24499</v>
+        <v>25999</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D244" t="n">
-        <v>52962</v>
+        <v>54462</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>12240</v>
+        <v>12322</v>
       </c>
       <c r="D248" t="n">
-        <v>17993247</v>
+        <v>18098807</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2892</v>
+        <v>2913</v>
       </c>
       <c r="D250" t="n">
-        <v>4266191</v>
+        <v>4325083</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D252" t="n">
-        <v>683737</v>
+        <v>688166</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D253" t="n">
-        <v>901106</v>
+        <v>920107</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>8883</v>
+        <v>8929</v>
       </c>
       <c r="D254" t="n">
-        <v>11143394</v>
+        <v>11202452</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D257" t="n">
-        <v>60537</v>
+        <v>60901</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3070</v>
+        <v>3092</v>
       </c>
       <c r="D258" t="n">
-        <v>4583791</v>
+        <v>4628232</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D259" t="n">
-        <v>11832</v>
+        <v>12498</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="D261" t="n">
-        <v>1721009</v>
+        <v>1753778</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>11343</v>
+        <v>11407</v>
       </c>
       <c r="D264" t="n">
-        <v>14650834</v>
+        <v>14784276</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>4743</v>
+        <v>4777</v>
       </c>
       <c r="D268" t="n">
-        <v>7079549</v>
+        <v>7143844</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D269" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2543</v>
+        <v>2562</v>
       </c>
       <c r="D270" t="n">
-        <v>3767099</v>
+        <v>3816688</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D271" t="n">
-        <v>158360</v>
+        <v>159860</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D273" t="n">
-        <v>267346</v>
+        <v>273853</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>6424</v>
+        <v>6459</v>
       </c>
       <c r="D274" t="n">
-        <v>7958267</v>
+        <v>8007915</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D275" t="n">
-        <v>18162</v>
+        <v>19662</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2240</v>
+        <v>2251</v>
       </c>
       <c r="D277" t="n">
-        <v>3333453</v>
+        <v>3361508</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="D279" t="n">
-        <v>1265120</v>
+        <v>1285636</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D282" t="n">
-        <v>334847</v>
+        <v>347847</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>22098</v>
+        <v>22252</v>
       </c>
       <c r="D283" t="n">
-        <v>28034503</v>
+        <v>28274710</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>9084</v>
+        <v>9154</v>
       </c>
       <c r="D287" t="n">
-        <v>13696523</v>
+        <v>13835986</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2938</v>
+        <v>2961</v>
       </c>
       <c r="D289" t="n">
-        <v>4363646</v>
+        <v>4412230</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D290" t="n">
-        <v>801858</v>
+        <v>806658</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D292" t="n">
-        <v>971981</v>
+        <v>985668</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>19072</v>
+        <v>19248</v>
       </c>
       <c r="D294" t="n">
-        <v>23871042</v>
+        <v>24144598</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D295" t="n">
-        <v>33715</v>
+        <v>40452</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D298" t="n">
-        <v>140978</v>
+        <v>142478</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8120</v>
+        <v>8175</v>
       </c>
       <c r="D299" t="n">
-        <v>12257034</v>
+        <v>12367109</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3912</v>
+        <v>3949</v>
       </c>
       <c r="D300" t="n">
-        <v>5827283</v>
+        <v>5889856</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D302" t="n">
-        <v>232348</v>
+        <v>232791</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D303" t="n">
-        <v>671283</v>
+        <v>694030</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>10645</v>
+        <v>10715</v>
       </c>
       <c r="D304" t="n">
-        <v>13349805</v>
+        <v>13454181</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4331</v>
+        <v>4363</v>
       </c>
       <c r="D308" t="n">
-        <v>6409483</v>
+        <v>6452165</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1487</v>
+        <v>1505</v>
       </c>
       <c r="D309" t="n">
-        <v>2200873</v>
+        <v>2233965</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D310" t="n">
-        <v>344027</v>
+        <v>345638</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D313" t="n">
-        <v>389814</v>
+        <v>391314</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>10712</v>
+        <v>10770</v>
       </c>
       <c r="D314" t="n">
-        <v>14033707</v>
+        <v>14112835</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>4263</v>
+        <v>4284</v>
       </c>
       <c r="D318" t="n">
-        <v>6458663</v>
+        <v>6528052</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2791</v>
+        <v>2808</v>
       </c>
       <c r="D319" t="n">
-        <v>4247715</v>
+        <v>4282724</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D320" t="n">
-        <v>407015</v>
+        <v>408115</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D321" t="n">
-        <v>227483</v>
+        <v>228983</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>12936</v>
+        <v>13018</v>
       </c>
       <c r="D322" t="n">
-        <v>17130263</v>
+        <v>17257409</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4397</v>
+        <v>4422</v>
       </c>
       <c r="D326" t="n">
-        <v>6705541</v>
+        <v>6795691</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3180</v>
+        <v>3196</v>
       </c>
       <c r="D328" t="n">
-        <v>4774957</v>
+        <v>4810897</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D330" t="n">
-        <v>344545</v>
+        <v>346045</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7757</v>
+        <v>7818</v>
       </c>
       <c r="D331" t="n">
-        <v>9633042</v>
+        <v>9714079</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D333" t="n">
-        <v>11430</v>
+        <v>12408</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2544</v>
+        <v>2556</v>
       </c>
       <c r="D336" t="n">
-        <v>3764217</v>
+        <v>3784104</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="D338" t="n">
-        <v>1417495</v>
+        <v>1465432</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D340" t="n">
-        <v>239113</v>
+        <v>249113</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>8746</v>
+        <v>8823</v>
       </c>
       <c r="D341" t="n">
-        <v>10987834</v>
+        <v>11097306</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3526</v>
+        <v>3547</v>
       </c>
       <c r="D346" t="n">
-        <v>5215383</v>
+        <v>5247407</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1500</v>
+        <v>1510</v>
       </c>
       <c r="D347" t="n">
-        <v>2220983</v>
+        <v>2244895</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D350" t="n">
-        <v>223636</v>
+        <v>223896</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>37748</v>
+        <v>38050</v>
       </c>
       <c r="D351" t="n">
-        <v>47799794</v>
+        <v>48305097</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>18595</v>
+        <v>18739</v>
       </c>
       <c r="D357" t="n">
-        <v>27792844</v>
+        <v>28121763</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>9344</v>
+        <v>9430</v>
       </c>
       <c r="D360" t="n">
-        <v>13888046</v>
+        <v>14086162</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="D362" t="n">
-        <v>1714283</v>
+        <v>1756401</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4488</v>
+        <v>4516</v>
       </c>
       <c r="D363" t="n">
-        <v>5516840</v>
+        <v>5543860</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D364" t="n">
-        <v>8978</v>
+        <v>10519</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="D366" t="n">
-        <v>2431493</v>
+        <v>2442245</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D367" t="n">
-        <v>988993</v>
+        <v>994825</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D370" t="n">
-        <v>146938</v>
+        <v>149938</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>22018</v>
+        <v>22141</v>
       </c>
       <c r="D371" t="n">
-        <v>27412857</v>
+        <v>27552808</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>11017</v>
+        <v>11082</v>
       </c>
       <c r="D375" t="n">
-        <v>16382730</v>
+        <v>16520340</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>5390</v>
+        <v>5415</v>
       </c>
       <c r="D377" t="n">
-        <v>7954778</v>
+        <v>7995304</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>16481</v>
+        <v>16628</v>
       </c>
       <c r="D380" t="n">
-        <v>20761866</v>
+        <v>20997051</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D383" t="n">
-        <v>132238</v>
+        <v>134320</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>7371</v>
+        <v>7441</v>
       </c>
       <c r="D384" t="n">
-        <v>11268924</v>
+        <v>11434701</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3017</v>
+        <v>3043</v>
       </c>
       <c r="D386" t="n">
-        <v>4488155</v>
+        <v>4540170</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D387" t="n">
-        <v>1315423</v>
+        <v>1325423</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D388" t="n">
-        <v>479571</v>
+        <v>485901</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>20748</v>
+        <v>20901</v>
       </c>
       <c r="D389" t="n">
-        <v>26015443</v>
+        <v>26253301</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>8005</v>
+        <v>8059</v>
       </c>
       <c r="D393" t="n">
-        <v>11959478</v>
+        <v>12075430</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3214</v>
+        <v>3238</v>
       </c>
       <c r="D395" t="n">
-        <v>4912182</v>
+        <v>5000473</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D398" t="n">
-        <v>812018</v>
+        <v>827998</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4644</v>
+        <v>4667</v>
       </c>
       <c r="D399" t="n">
-        <v>5793803</v>
+        <v>5832852</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="D402" t="n">
-        <v>2242549</v>
+        <v>2252801</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D403" t="n">
-        <v>931278</v>
+        <v>934679</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D405" t="n">
-        <v>181099</v>
+        <v>184099</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>25193</v>
+        <v>25320</v>
       </c>
       <c r="D406" t="n">
-        <v>31054000</v>
+        <v>31188662</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>10238</v>
+        <v>10280</v>
       </c>
       <c r="D409" t="n">
-        <v>15220171</v>
+        <v>15307750</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>6937</v>
+        <v>6969</v>
       </c>
       <c r="D411" t="n">
-        <v>10277053</v>
+        <v>10383769</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D413" t="n">
-        <v>644036</v>
+        <v>646536</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>12671</v>
+        <v>12742</v>
       </c>
       <c r="D414" t="n">
-        <v>15548501</v>
+        <v>15638192</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5880</v>
+        <v>5926</v>
       </c>
       <c r="D419" t="n">
-        <v>8629688</v>
+        <v>8706244</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2071</v>
+        <v>2079</v>
       </c>
       <c r="D421" t="n">
-        <v>3078647</v>
+        <v>3097546</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D423" t="n">
-        <v>363249</v>
+        <v>365109</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>39356</v>
+        <v>39589</v>
       </c>
       <c r="D424" t="n">
-        <v>54054988</v>
+        <v>54500229</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>9799</v>
+        <v>9860</v>
       </c>
       <c r="D428" t="n">
-        <v>14925015</v>
+        <v>15112225</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>9098</v>
+        <v>9144</v>
       </c>
       <c r="D430" t="n">
-        <v>13685471</v>
+        <v>13844269</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D432" t="n">
-        <v>878127</v>
+        <v>887210</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>17206</v>
+        <v>17261</v>
       </c>
       <c r="D434" t="n">
-        <v>32992757</v>
+        <v>33210999</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3956</v>
+        <v>3971</v>
       </c>
       <c r="D437" t="n">
-        <v>8140751</v>
+        <v>8202895</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>5658</v>
+        <v>5677</v>
       </c>
       <c r="D439" t="n">
-        <v>11823621</v>
+        <v>11926639</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D442" t="n">
-        <v>675578</v>
+        <v>684578</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>12666</v>
+        <v>12746</v>
       </c>
       <c r="D444" t="n">
-        <v>15715144</v>
+        <v>15815713</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D446" t="n">
-        <v>116072</v>
+        <v>116738</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4277</v>
+        <v>4306</v>
       </c>
       <c r="D447" t="n">
-        <v>6401945</v>
+        <v>6456620</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>2182</v>
+        <v>2192</v>
       </c>
       <c r="D449" t="n">
-        <v>3192769</v>
+        <v>3213689</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D451" t="n">
-        <v>319049</v>
+        <v>324865</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>74642</v>
+        <v>75376</v>
       </c>
       <c r="D452" t="n">
-        <v>93671477</v>
+        <v>94792535</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D455" t="n">
-        <v>544773</v>
+        <v>555543</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>28843</v>
+        <v>29091</v>
       </c>
       <c r="D456" t="n">
-        <v>44776267</v>
+        <v>45562710</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>16021</v>
+        <v>16196</v>
       </c>
       <c r="D458" t="n">
-        <v>24910642</v>
+        <v>25466466</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1519</v>
+        <v>1533</v>
       </c>
       <c r="D463" t="n">
-        <v>2284902</v>
+        <v>2337187</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>22614</v>
+        <v>22836</v>
       </c>
       <c r="D465" t="n">
-        <v>29059291</v>
+        <v>29414831</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D468" t="n">
-        <v>275763</v>
+        <v>287050</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>8705</v>
+        <v>8764</v>
       </c>
       <c r="D469" t="n">
-        <v>13200963</v>
+        <v>13368180</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D470" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>6171</v>
+        <v>6230</v>
       </c>
       <c r="D471" t="n">
-        <v>9451838</v>
+        <v>9638554</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D473" t="n">
-        <v>565677</v>
+        <v>568176</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>36937</v>
+        <v>37254</v>
       </c>
       <c r="D474" t="n">
-        <v>45414332</v>
+        <v>45845376</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D477" t="n">
-        <v>477803</v>
+        <v>484358</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>12753</v>
+        <v>12832</v>
       </c>
       <c r="D478" t="n">
-        <v>19206565</v>
+        <v>19408953</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>5596</v>
+        <v>5638</v>
       </c>
       <c r="D480" t="n">
-        <v>8400911</v>
+        <v>8507395</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D481" t="n">
-        <v>564575</v>
+        <v>569760</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D482" t="n">
-        <v>770092</v>
+        <v>789626</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>16224</v>
+        <v>16319</v>
       </c>
       <c r="D483" t="n">
-        <v>19847341</v>
+        <v>20015425</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>4885</v>
+        <v>4910</v>
       </c>
       <c r="D488" t="n">
-        <v>7253815</v>
+        <v>7287410</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2408</v>
+        <v>2421</v>
       </c>
       <c r="D490" t="n">
-        <v>3534283</v>
+        <v>3554559</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D491" t="n">
-        <v>230173</v>
+        <v>231673</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D492" t="n">
-        <v>587102</v>
+        <v>590102</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>47005</v>
+        <v>47625</v>
       </c>
       <c r="D493" t="n">
-        <v>63951768</v>
+        <v>65262904</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>15840</v>
+        <v>15947</v>
       </c>
       <c r="D497" t="n">
-        <v>24380317</v>
+        <v>24697808</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>15817</v>
+        <v>15985</v>
       </c>
       <c r="D499" t="n">
-        <v>24830998</v>
+        <v>25401880</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>86394</v>
+        <v>87669</v>
       </c>
       <c r="D502" t="n">
-        <v>120083345</v>
+        <v>122981915</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D505" t="n">
-        <v>271556</v>
+        <v>280154</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>29031</v>
+        <v>29334</v>
       </c>
       <c r="D507" t="n">
-        <v>45592607</v>
+        <v>46573441</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D508" t="n">
-        <v>93633</v>
+        <v>95006</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>31152</v>
+        <v>31571</v>
       </c>
       <c r="D509" t="n">
-        <v>49616335</v>
+        <v>51055360</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D511" t="n">
-        <v>415367</v>
+        <v>417367</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="D512" t="n">
-        <v>1411104</v>
+        <v>1443232</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>204929</v>
+        <v>207417</v>
       </c>
       <c r="D513" t="n">
-        <v>276806702</v>
+        <v>281940118</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D515" t="n">
-        <v>281419</v>
+        <v>301419</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="D518" t="n">
-        <v>1200426</v>
+        <v>1239404</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D519" t="n">
-        <v>73510</v>
+        <v>83510</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>104877</v>
+        <v>106041</v>
       </c>
       <c r="D520" t="n">
-        <v>170719632</v>
+        <v>175603038</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D521" t="n">
-        <v>861855</v>
+        <v>913838</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D522" t="n">
-        <v>47957</v>
+        <v>56940</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>81456</v>
+        <v>82468</v>
       </c>
       <c r="D523" t="n">
-        <v>133932048</v>
+        <v>138152167</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1246</v>
+        <v>1253</v>
       </c>
       <c r="D525" t="n">
-        <v>1837024</v>
+        <v>1853141</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>4317</v>
+        <v>4355</v>
       </c>
       <c r="D527" t="n">
-        <v>6526776</v>
+        <v>6661152</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>53489</v>
+        <v>54181</v>
       </c>
       <c r="D530" t="n">
-        <v>72209221</v>
+        <v>73611435</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D534" t="n">
-        <v>259661</v>
+        <v>262529</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>17849</v>
+        <v>17997</v>
       </c>
       <c r="D535" t="n">
-        <v>27681131</v>
+        <v>28171877</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>16721</v>
+        <v>16884</v>
       </c>
       <c r="D537" t="n">
-        <v>26054233</v>
+        <v>26622006</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D540" t="n">
-        <v>720149</v>
+        <v>734551</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>96356</v>
+        <v>97957</v>
       </c>
       <c r="D542" t="n">
-        <v>137406746</v>
+        <v>141119849</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D543" t="n">
-        <v>37765</v>
+        <v>47765</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D545" t="n">
-        <v>259774</v>
+        <v>272849</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>28437</v>
+        <v>28698</v>
       </c>
       <c r="D546" t="n">
-        <v>44787121</v>
+        <v>45835986</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>34399</v>
+        <v>34866</v>
       </c>
       <c r="D548" t="n">
-        <v>54863214</v>
+        <v>56519167</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D550" t="n">
-        <v>401733</v>
+        <v>410223</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="D552" t="n">
-        <v>1824041</v>
+        <v>1840787</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>74640</v>
+        <v>75760</v>
       </c>
       <c r="D553" t="n">
-        <v>103022216</v>
+        <v>105448630</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D557" t="n">
-        <v>250553</v>
+        <v>262903</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>21499</v>
+        <v>21690</v>
       </c>
       <c r="D558" t="n">
-        <v>33503073</v>
+        <v>34158774</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>25216</v>
+        <v>25546</v>
       </c>
       <c r="D560" t="n">
-        <v>39537903</v>
+        <v>40542955</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D561" t="n">
-        <v>380163</v>
+        <v>381663</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="D562" t="n">
-        <v>1420398</v>
+        <v>1452136</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>57150</v>
+        <v>58071</v>
       </c>
       <c r="D563" t="n">
-        <v>80395335</v>
+        <v>82535032</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>16678</v>
+        <v>16828</v>
       </c>
       <c r="D567" t="n">
-        <v>25949601</v>
+        <v>26448650</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D568" t="n">
-        <v>59061</v>
+        <v>60561</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>19626</v>
+        <v>19854</v>
       </c>
       <c r="D569" t="n">
-        <v>30630988</v>
+        <v>31380598</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D570" t="n">
-        <v>281513</v>
+        <v>285245</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D571" t="n">
-        <v>598458</v>
+        <v>604092</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>52601</v>
+        <v>53226</v>
       </c>
       <c r="D572" t="n">
-        <v>70914668</v>
+        <v>72323903</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D575" t="n">
-        <v>246562</v>
+        <v>248062</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>18829</v>
+        <v>18994</v>
       </c>
       <c r="D576" t="n">
-        <v>29136303</v>
+        <v>29663203</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>16714</v>
+        <v>16908</v>
       </c>
       <c r="D578" t="n">
-        <v>25866649</v>
+        <v>26511417</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D580" t="n">
-        <v>413449</v>
+        <v>418766</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D581" t="n">
-        <v>736062</v>
+        <v>758348</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>51456</v>
+        <v>51639</v>
       </c>
       <c r="D582" t="n">
-        <v>69206237</v>
+        <v>69561056</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D586" t="n">
-        <v>19118</v>
+        <v>23427</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>15731</v>
+        <v>15771</v>
       </c>
       <c r="D588" t="n">
-        <v>23403390</v>
+        <v>23535192</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>4295</v>
+        <v>4307</v>
       </c>
       <c r="D589" t="n">
-        <v>6281513</v>
+        <v>6315861</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D594" t="n">
-        <v>791921</v>
+        <v>799761</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>20664</v>
+        <v>20794</v>
       </c>
       <c r="D595" t="n">
-        <v>27545267</v>
+        <v>27768776</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>8588</v>
+        <v>8651</v>
       </c>
       <c r="D599" t="n">
-        <v>12914262</v>
+        <v>13111102</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>6122</v>
+        <v>6158</v>
       </c>
       <c r="D601" t="n">
-        <v>9136021</v>
+        <v>9255703</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D604" t="n">
-        <v>519444</v>
+        <v>522444</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>29719</v>
+        <v>29843</v>
       </c>
       <c r="D606" t="n">
-        <v>61277131</v>
+        <v>61901918</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>3000</v>
+        <v>3017</v>
       </c>
       <c r="D608" t="n">
-        <v>6200380</v>
+        <v>6284508</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D609" t="n">
-        <v>825982</v>
+        <v>847805</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D611" t="n">
-        <v>199530</v>
+        <v>204537</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D612" t="n">
-        <v>415887</v>
+        <v>421287</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>25260</v>
+        <v>25468</v>
       </c>
       <c r="D613" t="n">
-        <v>31771322</v>
+        <v>32077224</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>10225</v>
+        <v>10312</v>
       </c>
       <c r="D618" t="n">
-        <v>15670062</v>
+        <v>15926981</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>3895</v>
+        <v>3920</v>
       </c>
       <c r="D620" t="n">
-        <v>5831674</v>
+        <v>5897151</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D621" t="n">
-        <v>543537</v>
+        <v>545037</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D622" t="n">
-        <v>918569</v>
+        <v>927111</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>16927</v>
+        <v>17047</v>
       </c>
       <c r="D624" t="n">
-        <v>21278802</v>
+        <v>21453248</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>6471</v>
+        <v>6500</v>
       </c>
       <c r="D628" t="n">
-        <v>9706784</v>
+        <v>9779360</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>3228</v>
+        <v>3258</v>
       </c>
       <c r="D630" t="n">
-        <v>4888044</v>
+        <v>4959403</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D632" t="n">
-        <v>373720</v>
+        <v>380701</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>15531</v>
+        <v>15595</v>
       </c>
       <c r="D633" t="n">
-        <v>19565787</v>
+        <v>19654715</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D636" t="n">
-        <v>251693</v>
+        <v>253859</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>5804</v>
+        <v>5848</v>
       </c>
       <c r="D637" t="n">
-        <v>8666381</v>
+        <v>8769769</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1377</v>
+        <v>1391</v>
       </c>
       <c r="D639" t="n">
-        <v>2058233</v>
+        <v>2099561</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D642" t="n">
-        <v>499945</v>
+        <v>504445</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>8505</v>
+        <v>8550</v>
       </c>
       <c r="D643" t="n">
-        <v>10857275</v>
+        <v>10903523</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2823</v>
+        <v>2836</v>
       </c>
       <c r="D648" t="n">
-        <v>4150648</v>
+        <v>4161034</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D650" t="n">
-        <v>1392746</v>
+        <v>1393412</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D652" t="n">
-        <v>261524</v>
+        <v>265036</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>33127</v>
+        <v>33404</v>
       </c>
       <c r="D653" t="n">
-        <v>40939679</v>
+        <v>41311859</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D657" t="n">
-        <v>267851</v>
+        <v>276066</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>12553</v>
+        <v>12650</v>
       </c>
       <c r="D658" t="n">
-        <v>19073389</v>
+        <v>19297731</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>5806</v>
+        <v>5860</v>
       </c>
       <c r="D660" t="n">
-        <v>8956688</v>
+        <v>9156703</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D663" t="n">
-        <v>1129341</v>
+        <v>1140586</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>12893</v>
+        <v>12965</v>
       </c>
       <c r="D664" t="n">
-        <v>15493964</v>
+        <v>15581251</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>4007</v>
+        <v>4022</v>
       </c>
       <c r="D669" t="n">
-        <v>5885124</v>
+        <v>5907144</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>1241</v>
+        <v>1250</v>
       </c>
       <c r="D670" t="n">
-        <v>1844028</v>
+        <v>1868379</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D673" t="n">
-        <v>439641</v>
+        <v>441141</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>31613</v>
+        <v>31781</v>
       </c>
       <c r="D674" t="n">
-        <v>39293841</v>
+        <v>39565837</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>11706</v>
+        <v>11768</v>
       </c>
       <c r="D678" t="n">
-        <v>17380274</v>
+        <v>17487199</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3441</v>
+        <v>3459</v>
       </c>
       <c r="D680" t="n">
-        <v>5055760</v>
+        <v>5084072</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D682" t="n">
-        <v>775746</v>
+        <v>777198</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D683" t="n">
-        <v>885463</v>
+        <v>897209</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>8495</v>
+        <v>8548</v>
       </c>
       <c r="D684" t="n">
-        <v>10717743</v>
+        <v>10776879</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D685" t="n">
-        <v>99645</v>
+        <v>101145</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>2857</v>
+        <v>2869</v>
       </c>
       <c r="D686" t="n">
-        <v>4222926</v>
+        <v>4235967</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="D688" t="n">
-        <v>2132323</v>
+        <v>2164722</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D689" t="n">
-        <v>416896</v>
+        <v>417804</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>4340</v>
+        <v>4368</v>
       </c>
       <c r="D692" t="n">
-        <v>5224445</v>
+        <v>5255108</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D696" t="n">
-        <v>1317320</v>
+        <v>1330377</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D698" t="n">
-        <v>726497</v>
+        <v>732479</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>10551</v>
+        <v>10614</v>
       </c>
       <c r="D701" t="n">
-        <v>13089470</v>
+        <v>13169006</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3842</v>
+        <v>3867</v>
       </c>
       <c r="D705" t="n">
-        <v>5698913</v>
+        <v>5728810</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="D706" t="n">
-        <v>1302992</v>
+        <v>1323324</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>21815</v>
+        <v>21927</v>
       </c>
       <c r="D710" t="n">
-        <v>26680237</v>
+        <v>26790760</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D712" t="n">
-        <v>68020</v>
+        <v>71020</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>6338</v>
+        <v>6366</v>
       </c>
       <c r="D714" t="n">
-        <v>9359097</v>
+        <v>9406663</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>2565</v>
+        <v>2574</v>
       </c>
       <c r="D716" t="n">
-        <v>3734267</v>
+        <v>3745667</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D718" t="n">
-        <v>550865</v>
+        <v>552365</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D720" t="n">
-        <v>566696</v>
+        <v>582154</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>87048</v>
+        <v>87590</v>
       </c>
       <c r="D722" t="n">
-        <v>110326449</v>
+        <v>111237778</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>30380</v>
+        <v>30538</v>
       </c>
       <c r="D727" t="n">
-        <v>46121280</v>
+        <v>46556958</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>15768</v>
+        <v>15872</v>
       </c>
       <c r="D730" t="n">
-        <v>23609235</v>
+        <v>23916497</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D733" t="n">
-        <v>3293126</v>
+        <v>3303126</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>1709</v>
+        <v>1723</v>
       </c>
       <c r="D735" t="n">
-        <v>2477454</v>
+        <v>2514890</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35662,10 +35662,10 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>12890</v>
+        <v>13021</v>
       </c>
       <c r="D736" t="n">
-        <v>15877627</v>
+        <v>16104586</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D738" t="n">
-        <v>157653</v>
+        <v>167653</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>4610</v>
+        <v>4652</v>
       </c>
       <c r="D739" t="n">
-        <v>6824734</v>
+        <v>6877874</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1728</v>
+        <v>1747</v>
       </c>
       <c r="D741" t="n">
-        <v>2613546</v>
+        <v>2672319</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>19790</v>
+        <v>19861</v>
       </c>
       <c r="D744" t="n">
-        <v>24352305</v>
+        <v>24439735</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36190,10 +36190,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D747" t="n">
-        <v>88068</v>
+        <v>92568</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>7576</v>
+        <v>7608</v>
       </c>
       <c r="D748" t="n">
-        <v>11233473</v>
+        <v>11293555</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>2536</v>
+        <v>2559</v>
       </c>
       <c r="D750" t="n">
-        <v>3739348</v>
+        <v>3788797</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D752" t="n">
-        <v>489003</v>
+        <v>491882</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D753" t="n">
-        <v>626072</v>
+        <v>631706</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>13038</v>
+        <v>13118</v>
       </c>
       <c r="D755" t="n">
-        <v>16064714</v>
+        <v>16159345</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>4712</v>
+        <v>4733</v>
       </c>
       <c r="D759" t="n">
-        <v>7020665</v>
+        <v>7051268</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1803</v>
+        <v>1810</v>
       </c>
       <c r="D761" t="n">
-        <v>2643544</v>
+        <v>2649755</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36958,10 +36958,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D763" t="n">
-        <v>554624</v>
+        <v>557624</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37006,10 +37006,10 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>33298</v>
+        <v>33501</v>
       </c>
       <c r="D764" t="n">
-        <v>41463712</v>
+        <v>41736991</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D768" t="n">
-        <v>174156</v>
+        <v>175656</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>14129</v>
+        <v>14209</v>
       </c>
       <c r="D769" t="n">
-        <v>21192653</v>
+        <v>21360887</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>4809</v>
+        <v>4833</v>
       </c>
       <c r="D771" t="n">
-        <v>7117306</v>
+        <v>7203652</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="D774" t="n">
-        <v>1278872</v>
+        <v>1308591</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>13954</v>
+        <v>14059</v>
       </c>
       <c r="D776" t="n">
-        <v>17311502</v>
+        <v>17495943</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37678,10 +37678,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D778" t="n">
-        <v>136312</v>
+        <v>137812</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>5115</v>
+        <v>5144</v>
       </c>
       <c r="D779" t="n">
-        <v>7537587</v>
+        <v>7594199</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>1333</v>
+        <v>1346</v>
       </c>
       <c r="D780" t="n">
-        <v>1918719</v>
+        <v>1941603</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D782" t="n">
-        <v>714663</v>
+        <v>716163</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -37918,10 +37918,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>7771</v>
+        <v>7840</v>
       </c>
       <c r="D783" t="n">
-        <v>9125503</v>
+        <v>9225176</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -38062,10 +38062,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D786" t="n">
-        <v>35876</v>
+        <v>37814</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1935</v>
+        <v>1952</v>
       </c>
       <c r="D787" t="n">
-        <v>2902746</v>
+        <v>2937124</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>1183</v>
+        <v>1195</v>
       </c>
       <c r="D788" t="n">
-        <v>1775111</v>
+        <v>1807866</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38206,10 +38206,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D789" t="n">
-        <v>231158</v>
+        <v>232464</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>19138</v>
+        <v>19244</v>
       </c>
       <c r="D791" t="n">
-        <v>23277874</v>
+        <v>23400903</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38446,10 +38446,10 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D794" t="n">
-        <v>73222</v>
+        <v>75422</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>6187</v>
+        <v>6207</v>
       </c>
       <c r="D796" t="n">
-        <v>9222366</v>
+        <v>9277542</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>3907</v>
+        <v>3927</v>
       </c>
       <c r="D798" t="n">
-        <v>5818681</v>
+        <v>5862928</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D800" t="n">
-        <v>595034</v>
+        <v>596534</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D801" t="n">
-        <v>584067</v>
+        <v>605489</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38830,10 +38830,10 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>12937</v>
+        <v>13035</v>
       </c>
       <c r="D802" t="n">
-        <v>16336250</v>
+        <v>16452076</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -39070,10 +39070,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>4368</v>
+        <v>4392</v>
       </c>
       <c r="D807" t="n">
-        <v>6573915</v>
+        <v>6652010</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>1459</v>
+        <v>1466</v>
       </c>
       <c r="D809" t="n">
-        <v>2235018</v>
+        <v>2263624</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D811" t="n">
-        <v>775747</v>
+        <v>777097</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39310,10 +39310,10 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D812" t="n">
-        <v>487666</v>
+        <v>497666</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -39358,10 +39358,10 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>37346</v>
+        <v>37650</v>
       </c>
       <c r="D813" t="n">
-        <v>46255707</v>
+        <v>46701368</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -39550,10 +39550,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>14821</v>
+        <v>14906</v>
       </c>
       <c r="D817" t="n">
-        <v>22538147</v>
+        <v>22783062</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>7029</v>
+        <v>7077</v>
       </c>
       <c r="D819" t="n">
-        <v>10552485</v>
+        <v>10653792</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D820" t="n">
-        <v>860086</v>
+        <v>861586</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39790,10 +39790,10 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="D822" t="n">
-        <v>1388965</v>
+        <v>1413974</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -39838,10 +39838,10 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>8730</v>
+        <v>8774</v>
       </c>
       <c r="D823" t="n">
-        <v>10777025</v>
+        <v>10827135</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3030</v>
+        <v>3045</v>
       </c>
       <c r="D829" t="n">
-        <v>4480698</v>
+        <v>4512142</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="D830" t="n">
-        <v>1967439</v>
+        <v>1999258</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D831" t="n">
-        <v>612170</v>
+        <v>615145</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D832" t="n">
-        <v>501702</v>
+        <v>503868</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40318,10 +40318,10 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>70349</v>
+        <v>71027</v>
       </c>
       <c r="D833" t="n">
-        <v>89531657</v>
+        <v>90755394</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -40558,10 +40558,10 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>24538</v>
+        <v>24701</v>
       </c>
       <c r="D838" t="n">
-        <v>38160582</v>
+        <v>38724444</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -40702,10 +40702,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>15205</v>
+        <v>15342</v>
       </c>
       <c r="D841" t="n">
-        <v>23375612</v>
+        <v>23823598</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D843" t="n">
-        <v>689067</v>
+        <v>690567</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1931</v>
+        <v>1941</v>
       </c>
       <c r="D846" t="n">
-        <v>2745687</v>
+        <v>2766919</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>13123</v>
+        <v>13230</v>
       </c>
       <c r="D847" t="n">
-        <v>16620491</v>
+        <v>16770958</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D850" t="n">
-        <v>117535</v>
+        <v>136973</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>4813</v>
+        <v>4851</v>
       </c>
       <c r="D851" t="n">
-        <v>7609750</v>
+        <v>7754306</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="D853" t="n">
-        <v>2309893</v>
+        <v>2337209</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41470,10 +41470,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D857" t="n">
-        <v>505531</v>
+        <v>508531</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>67928</v>
+        <v>68492</v>
       </c>
       <c r="D858" t="n">
-        <v>84773479</v>
+        <v>85653978</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>25320</v>
+        <v>25495</v>
       </c>
       <c r="D864" t="n">
-        <v>39112207</v>
+        <v>39694686</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41902,10 +41902,10 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>16840</v>
+        <v>16959</v>
       </c>
       <c r="D866" t="n">
-        <v>25764886</v>
+        <v>26140360</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="D868" t="n">
-        <v>1389920</v>
+        <v>1400573</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>1906</v>
+        <v>1918</v>
       </c>
       <c r="D869" t="n">
-        <v>2819021</v>
+        <v>2851735</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>8756</v>
+        <v>8795</v>
       </c>
       <c r="D871" t="n">
-        <v>10708573</v>
+        <v>10750134</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>2860</v>
+        <v>2883</v>
       </c>
       <c r="D873" t="n">
-        <v>4262878</v>
+        <v>4323017</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="D874" t="n">
-        <v>1719191</v>
+        <v>1727019</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42382,10 +42382,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D876" t="n">
-        <v>306725</v>
+        <v>308225</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -42430,10 +42430,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>3986</v>
+        <v>3999</v>
       </c>
       <c r="D877" t="n">
-        <v>5138788</v>
+        <v>5158104</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="D880" t="n">
-        <v>1841504</v>
+        <v>1845475</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D884" t="n">
-        <v>195597</v>
+        <v>201436</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>25211</v>
+        <v>25371</v>
       </c>
       <c r="D885" t="n">
-        <v>31670343</v>
+        <v>31883080</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>8541</v>
+        <v>8578</v>
       </c>
       <c r="D889" t="n">
-        <v>12785436</v>
+        <v>12860717</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>5359</v>
+        <v>5390</v>
       </c>
       <c r="D891" t="n">
-        <v>8041161</v>
+        <v>8118286</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43198,10 +43198,10 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D893" t="n">
-        <v>577856</v>
+        <v>579786</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D894" t="n">
-        <v>873914</v>
+        <v>884414</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>16588</v>
+        <v>16714</v>
       </c>
       <c r="D896" t="n">
-        <v>20016312</v>
+        <v>20170242</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>5844</v>
+        <v>5888</v>
       </c>
       <c r="D900" t="n">
-        <v>8849927</v>
+        <v>8992415</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>2758</v>
+        <v>2780</v>
       </c>
       <c r="D902" t="n">
-        <v>4193633</v>
+        <v>4291009</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D905" t="n">
-        <v>574131</v>
+        <v>580153</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>11122</v>
+        <v>11190</v>
       </c>
       <c r="D906" t="n">
-        <v>13768972</v>
+        <v>13877669</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>3695</v>
+        <v>3727</v>
       </c>
       <c r="D909" t="n">
-        <v>5529362</v>
+        <v>5587260</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>1742</v>
+        <v>1755</v>
       </c>
       <c r="D910" t="n">
-        <v>2609180</v>
+        <v>2635232</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44110,10 +44110,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D912" t="n">
-        <v>369364</v>
+        <v>372902</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44158,10 +44158,10 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>52094</v>
+        <v>52415</v>
       </c>
       <c r="D913" t="n">
-        <v>65620628</v>
+        <v>66131764</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D915" t="n">
-        <v>41947</v>
+        <v>43447</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44398,10 +44398,10 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>23824</v>
+        <v>23991</v>
       </c>
       <c r="D918" t="n">
-        <v>35611563</v>
+        <v>35953705</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>7178</v>
+        <v>7232</v>
       </c>
       <c r="D920" t="n">
-        <v>10747844</v>
+        <v>10909177</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D921" t="n">
-        <v>947960</v>
+        <v>955286</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="D923" t="n">
-        <v>1811078</v>
+        <v>1831077</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>24361</v>
+        <v>24545</v>
       </c>
       <c r="D924" t="n">
-        <v>30395969</v>
+        <v>30621683</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D927" t="n">
-        <v>182669</v>
+        <v>184709</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44878,10 +44878,10 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>10956</v>
+        <v>11037</v>
       </c>
       <c r="D928" t="n">
-        <v>16477682</v>
+        <v>16657376</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>2663</v>
+        <v>2683</v>
       </c>
       <c r="D930" t="n">
-        <v>3919021</v>
+        <v>3962132</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45118,10 +45118,10 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D933" t="n">
-        <v>1231570</v>
+        <v>1251092</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>8080</v>
+        <v>8132</v>
       </c>
       <c r="D934" t="n">
-        <v>10105579</v>
+        <v>10158705</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D938" t="n">
-        <v>125700</v>
+        <v>126366</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>3379</v>
+        <v>3401</v>
       </c>
       <c r="D939" t="n">
-        <v>4969446</v>
+        <v>4987737</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="D940" t="n">
-        <v>1116130</v>
+        <v>1138708</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45550,10 +45550,10 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D942" t="n">
-        <v>325388</v>
+        <v>326888</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -45598,10 +45598,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>14812</v>
+        <v>14891</v>
       </c>
       <c r="D943" t="n">
-        <v>18419125</v>
+        <v>18527899</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D946" t="n">
-        <v>122986</v>
+        <v>125152</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>5886</v>
+        <v>5929</v>
       </c>
       <c r="D947" t="n">
-        <v>8593950</v>
+        <v>8644841</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>1657</v>
+        <v>1666</v>
       </c>
       <c r="D949" t="n">
-        <v>2429951</v>
+        <v>2459186</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -46078,10 +46078,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D953" t="n">
-        <v>486508</v>
+        <v>489308</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46126,10 +46126,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21798</v>
+        <v>21910</v>
       </c>
       <c r="D954" t="n">
-        <v>27032777</v>
+        <v>27152668</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D957" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D958" t="n">
-        <v>203467</v>
+        <v>204466</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>11005</v>
+        <v>11079</v>
       </c>
       <c r="D959" t="n">
-        <v>16121873</v>
+        <v>16225256</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>2415</v>
+        <v>2437</v>
       </c>
       <c r="D961" t="n">
-        <v>3564096</v>
+        <v>3612887</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D962" t="n">
-        <v>538917</v>
+        <v>547887</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D963" t="n">
-        <v>817486</v>
+        <v>818485</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46606,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>9765</v>
+        <v>9832</v>
       </c>
       <c r="D964" t="n">
-        <v>12231698</v>
+        <v>12332420</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46846,10 +46846,10 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>3524</v>
+        <v>3541</v>
       </c>
       <c r="D969" t="n">
-        <v>5245695</v>
+        <v>5281238</v>
       </c>
       <c r="E969" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>1689</v>
+        <v>1700</v>
       </c>
       <c r="D970" t="n">
-        <v>2510737</v>
+        <v>2554199</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>82357</v>
+        <v>83145</v>
       </c>
       <c r="D974" t="n">
-        <v>108530464</v>
+        <v>110078095</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47134,10 +47134,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D975" t="n">
-        <v>87780</v>
+        <v>91029</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D976" t="n">
-        <v>127768</v>
+        <v>129324</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47326,10 +47326,10 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D979" t="n">
-        <v>389088</v>
+        <v>399054</v>
       </c>
       <c r="E979" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>30425</v>
+        <v>30657</v>
       </c>
       <c r="D981" t="n">
-        <v>48094721</v>
+        <v>48946029</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47518,10 +47518,10 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>22331</v>
+        <v>22557</v>
       </c>
       <c r="D983" t="n">
-        <v>35166619</v>
+        <v>35919874</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D985" t="n">
-        <v>822331</v>
+        <v>833781</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>1291</v>
+        <v>1308</v>
       </c>
       <c r="D986" t="n">
-        <v>1951470</v>
+        <v>1995360</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>100385</v>
+        <v>101343</v>
       </c>
       <c r="D987" t="n">
-        <v>128297972</v>
+        <v>129906318</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D994" t="n">
-        <v>559102</v>
+        <v>570596</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>40130</v>
+        <v>40438</v>
       </c>
       <c r="D995" t="n">
-        <v>63070348</v>
+        <v>64178736</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>31531</v>
+        <v>31791</v>
       </c>
       <c r="D998" t="n">
-        <v>49325751</v>
+        <v>50193868</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48286,10 +48286,10 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D999" t="n">
-        <v>1011199</v>
+        <v>1028599</v>
       </c>
       <c r="E999" t="inlineStr">
         <is>
@@ -48382,10 +48382,10 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>2888</v>
+        <v>2914</v>
       </c>
       <c r="D1001" t="n">
-        <v>4334102</v>
+        <v>4427171</v>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>12564</v>
+        <v>12668</v>
       </c>
       <c r="D1002" t="n">
-        <v>16429482</v>
+        <v>16600006</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>4007</v>
+        <v>4024</v>
       </c>
       <c r="D1007" t="n">
-        <v>6146083</v>
+        <v>6200301</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
@@ -48718,10 +48718,10 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>1363</v>
+        <v>1378</v>
       </c>
       <c r="D1008" t="n">
-        <v>2118548</v>
+        <v>2165855</v>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
@@ -48910,10 +48910,10 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D1012" t="n">
-        <v>340287</v>
+        <v>352506</v>
       </c>
       <c r="E1012" t="inlineStr">
         <is>
@@ -48958,10 +48958,10 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>63767</v>
+        <v>64266</v>
       </c>
       <c r="D1013" t="n">
-        <v>80418119</v>
+        <v>81178366</v>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
@@ -49006,10 +49006,10 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1014" t="n">
-        <v>70063</v>
+        <v>71989</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
@@ -49054,10 +49054,10 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1015" t="n">
-        <v>74040</v>
+        <v>74176</v>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
@@ -49150,10 +49150,10 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1017" t="n">
-        <v>294205</v>
+        <v>294478</v>
       </c>
       <c r="E1017" t="inlineStr">
         <is>
@@ -49198,10 +49198,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>20467</v>
+        <v>20609</v>
       </c>
       <c r="D1018" t="n">
-        <v>30822697</v>
+        <v>31151086</v>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
@@ -49294,10 +49294,10 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>14650</v>
+        <v>14763</v>
       </c>
       <c r="D1020" t="n">
-        <v>22307496</v>
+        <v>22660914</v>
       </c>
       <c r="E1020" t="inlineStr">
         <is>
@@ -49342,10 +49342,10 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D1021" t="n">
-        <v>771130</v>
+        <v>785959</v>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
@@ -49438,10 +49438,10 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="D1023" t="n">
-        <v>1438632</v>
+        <v>1451860</v>
       </c>
       <c r="E1023" t="inlineStr">
         <is>
@@ -49486,10 +49486,10 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>32728</v>
+        <v>32989</v>
       </c>
       <c r="D1024" t="n">
-        <v>41069697</v>
+        <v>41446584</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
@@ -49726,10 +49726,10 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>12067</v>
+        <v>12143</v>
       </c>
       <c r="D1029" t="n">
-        <v>18335818</v>
+        <v>18523356</v>
       </c>
       <c r="E1029" t="inlineStr">
         <is>
@@ -49822,10 +49822,10 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>7417</v>
+        <v>7489</v>
       </c>
       <c r="D1031" t="n">
-        <v>11400883</v>
+        <v>11624866</v>
       </c>
       <c r="E1031" t="inlineStr">
         <is>
@@ -49870,10 +49870,10 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D1032" t="n">
-        <v>835615</v>
+        <v>839552</v>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
@@ -49918,10 +49918,10 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="D1033" t="n">
-        <v>1199574</v>
+        <v>1213349</v>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
